--- a/database/industries/folad/fejahan/product/monthly_seprated.xlsx
+++ b/database/industries/folad/fejahan/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\fejahan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fejahan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1863ECBE-30A9-4AC0-B974-ABBD28A7D4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85862317-CD5A-4FB6-BFA8-95E5ECC9E0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -775,12 +775,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -835,7 +835,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1004,7 +1004,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1385,7 +1385,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1501,107 +1501,107 @@
       <c r="U11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>58</v>
+      <c r="V11" s="11">
+        <v>15506</v>
       </c>
       <c r="W11" s="11">
-        <v>15506</v>
+        <v>2230</v>
       </c>
       <c r="X11" s="11">
-        <v>2230</v>
+        <v>365</v>
       </c>
       <c r="Y11" s="11">
-        <v>365</v>
+        <v>18820</v>
       </c>
       <c r="Z11" s="11">
-        <v>18820</v>
+        <v>6824</v>
       </c>
       <c r="AA11" s="11">
-        <v>6824</v>
+        <v>7308</v>
       </c>
       <c r="AB11" s="11">
-        <v>7308</v>
+        <v>7869</v>
       </c>
       <c r="AC11" s="11">
-        <v>7869</v>
+        <v>9041</v>
       </c>
       <c r="AD11" s="11">
-        <v>9041</v>
+        <v>5260</v>
       </c>
       <c r="AE11" s="11">
-        <v>5260</v>
-      </c>
-      <c r="AF11" s="11">
         <v>6843</v>
       </c>
+      <c r="AF11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>58</v>
+      <c r="AH11" s="11">
+        <v>2437</v>
       </c>
       <c r="AI11" s="11">
-        <v>2437</v>
-      </c>
-      <c r="AJ11" s="11">
         <v>1577</v>
       </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
+      <c r="AJ11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>46957</v>
       </c>
       <c r="AL11" s="11">
-        <v>46957</v>
+        <v>12803</v>
       </c>
       <c r="AM11" s="11">
-        <v>12803</v>
+        <v>18793</v>
       </c>
       <c r="AN11" s="11">
-        <v>18793</v>
+        <v>19482</v>
       </c>
       <c r="AO11" s="11">
-        <v>19482</v>
+        <v>28431</v>
       </c>
       <c r="AP11" s="11">
-        <v>28431</v>
+        <v>23352</v>
       </c>
       <c r="AQ11" s="11">
-        <v>23352</v>
+        <v>23252</v>
       </c>
       <c r="AR11" s="11">
-        <v>23252</v>
+        <v>22022</v>
       </c>
       <c r="AS11" s="11">
-        <v>22022</v>
+        <v>22635</v>
       </c>
       <c r="AT11" s="11">
-        <v>22635</v>
+        <v>15846</v>
       </c>
       <c r="AU11" s="11">
-        <v>15846</v>
+        <v>13840</v>
       </c>
       <c r="AV11" s="11">
-        <v>13840</v>
+        <v>13706</v>
       </c>
       <c r="AW11" s="11">
-        <v>13706</v>
+        <v>22522</v>
       </c>
       <c r="AX11" s="11">
-        <v>22522</v>
+        <v>20662</v>
       </c>
       <c r="AY11" s="11">
-        <v>20662</v>
+        <v>19947</v>
       </c>
       <c r="AZ11" s="11">
-        <v>19947</v>
+        <v>18443</v>
       </c>
       <c r="BA11" s="11">
-        <v>18443</v>
+        <v>16926</v>
       </c>
       <c r="BB11" s="11">
-        <v>16926</v>
+        <v>14582</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1654,113 +1654,113 @@
       <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>58</v>
+      <c r="T12" s="13">
+        <v>84615</v>
       </c>
       <c r="U12" s="13">
-        <v>84615</v>
+        <v>85621</v>
       </c>
       <c r="V12" s="13">
-        <v>85621</v>
+        <v>87975</v>
       </c>
       <c r="W12" s="13">
-        <v>87975</v>
+        <v>87900</v>
       </c>
       <c r="X12" s="13">
-        <v>87900</v>
+        <v>84961</v>
       </c>
       <c r="Y12" s="13">
-        <v>84961</v>
+        <v>83615</v>
       </c>
       <c r="Z12" s="13">
-        <v>83615</v>
+        <v>38517</v>
       </c>
       <c r="AA12" s="13">
-        <v>38517</v>
+        <v>82555</v>
       </c>
       <c r="AB12" s="13">
-        <v>82555</v>
+        <v>77482</v>
       </c>
       <c r="AC12" s="13">
-        <v>77482</v>
+        <v>82250</v>
       </c>
       <c r="AD12" s="13">
-        <v>82250</v>
+        <v>81095</v>
       </c>
       <c r="AE12" s="13">
-        <v>81095</v>
+        <v>80947</v>
       </c>
       <c r="AF12" s="13">
-        <v>80947</v>
+        <v>85221</v>
       </c>
       <c r="AG12" s="13">
-        <v>85221</v>
+        <v>83307</v>
       </c>
       <c r="AH12" s="13">
-        <v>83307</v>
+        <v>86809</v>
       </c>
       <c r="AI12" s="13">
-        <v>86809</v>
+        <v>83191</v>
       </c>
       <c r="AJ12" s="13">
-        <v>83191</v>
+        <v>84438</v>
       </c>
       <c r="AK12" s="13">
-        <v>84438</v>
+        <v>86164</v>
       </c>
       <c r="AL12" s="13">
-        <v>86164</v>
+        <v>80332</v>
       </c>
       <c r="AM12" s="13">
-        <v>80332</v>
+        <v>80713</v>
       </c>
       <c r="AN12" s="13">
-        <v>80713</v>
+        <v>80300</v>
       </c>
       <c r="AO12" s="13">
-        <v>80300</v>
+        <v>53885</v>
       </c>
       <c r="AP12" s="13">
-        <v>53885</v>
+        <v>29389</v>
       </c>
       <c r="AQ12" s="13">
-        <v>29389</v>
+        <v>74303</v>
       </c>
       <c r="AR12" s="13">
-        <v>74303</v>
+        <v>82354</v>
       </c>
       <c r="AS12" s="13">
-        <v>82354</v>
+        <v>82632</v>
       </c>
       <c r="AT12" s="13">
-        <v>82632</v>
+        <v>86486</v>
       </c>
       <c r="AU12" s="13">
-        <v>86486</v>
+        <v>82979</v>
       </c>
       <c r="AV12" s="13">
-        <v>82979</v>
+        <v>85310</v>
       </c>
       <c r="AW12" s="13">
-        <v>85310</v>
+        <v>82722</v>
       </c>
       <c r="AX12" s="13">
-        <v>82722</v>
+        <v>81447</v>
       </c>
       <c r="AY12" s="13">
-        <v>81447</v>
+        <v>86523</v>
       </c>
       <c r="AZ12" s="13">
-        <v>86523</v>
+        <v>50803</v>
       </c>
       <c r="BA12" s="13">
-        <v>50803</v>
+        <v>49372</v>
       </c>
       <c r="BB12" s="13">
-        <v>49372</v>
+        <v>47928</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1813,113 +1813,113 @@
       <c r="S13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>58</v>
+      <c r="T13" s="11">
+        <v>47484</v>
       </c>
       <c r="U13" s="11">
-        <v>47484</v>
+        <v>72491</v>
       </c>
       <c r="V13" s="11">
-        <v>72491</v>
+        <v>73407</v>
       </c>
       <c r="W13" s="11">
-        <v>73407</v>
+        <v>73712</v>
       </c>
       <c r="X13" s="11">
-        <v>73712</v>
+        <v>75881</v>
       </c>
       <c r="Y13" s="11">
-        <v>75881</v>
+        <v>78146</v>
       </c>
       <c r="Z13" s="11">
-        <v>78146</v>
+        <v>76776</v>
       </c>
       <c r="AA13" s="11">
-        <v>76776</v>
+        <v>70133</v>
       </c>
       <c r="AB13" s="11">
-        <v>70133</v>
+        <v>68958</v>
       </c>
       <c r="AC13" s="11">
-        <v>68958</v>
+        <v>55399</v>
       </c>
       <c r="AD13" s="11">
-        <v>55399</v>
+        <v>80522</v>
       </c>
       <c r="AE13" s="11">
-        <v>80522</v>
+        <v>77868</v>
       </c>
       <c r="AF13" s="11">
-        <v>77868</v>
+        <v>80829</v>
       </c>
       <c r="AG13" s="11">
-        <v>80829</v>
+        <v>93247</v>
       </c>
       <c r="AH13" s="11">
-        <v>93247</v>
+        <v>88113</v>
       </c>
       <c r="AI13" s="11">
-        <v>88113</v>
+        <v>37949</v>
       </c>
       <c r="AJ13" s="11">
-        <v>37949</v>
+        <v>25456</v>
       </c>
       <c r="AK13" s="11">
-        <v>25456</v>
+        <v>58288</v>
       </c>
       <c r="AL13" s="11">
-        <v>58288</v>
+        <v>79559</v>
       </c>
       <c r="AM13" s="11">
-        <v>79559</v>
+        <v>85544</v>
       </c>
       <c r="AN13" s="11">
-        <v>85544</v>
+        <v>81082</v>
       </c>
       <c r="AO13" s="11">
-        <v>81082</v>
+        <v>85588</v>
       </c>
       <c r="AP13" s="11">
-        <v>85588</v>
+        <v>77102</v>
       </c>
       <c r="AQ13" s="11">
-        <v>77102</v>
+        <v>85472</v>
       </c>
       <c r="AR13" s="11">
-        <v>85472</v>
+        <v>88045</v>
       </c>
       <c r="AS13" s="11">
-        <v>88045</v>
+        <v>88227</v>
       </c>
       <c r="AT13" s="11">
-        <v>88227</v>
+        <v>49199</v>
       </c>
       <c r="AU13" s="11">
-        <v>49199</v>
+        <v>55778</v>
       </c>
       <c r="AV13" s="11">
-        <v>55778</v>
+        <v>58075</v>
       </c>
       <c r="AW13" s="11">
-        <v>58075</v>
+        <v>85562</v>
       </c>
       <c r="AX13" s="11">
-        <v>85562</v>
+        <v>84346</v>
       </c>
       <c r="AY13" s="11">
-        <v>84346</v>
+        <v>70319</v>
       </c>
       <c r="AZ13" s="11">
-        <v>70319</v>
+        <v>69304</v>
       </c>
       <c r="BA13" s="11">
-        <v>69304</v>
+        <v>64521</v>
       </c>
       <c r="BB13" s="11">
-        <v>64521</v>
+        <v>64560</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1975,110 +1975,110 @@
       <c r="T14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>58</v>
+      <c r="U14" s="13">
+        <v>1392</v>
       </c>
       <c r="V14" s="13">
-        <v>1392</v>
+        <v>1031</v>
       </c>
       <c r="W14" s="13">
-        <v>1031</v>
+        <v>1329</v>
       </c>
       <c r="X14" s="13">
-        <v>1329</v>
+        <v>1162</v>
       </c>
       <c r="Y14" s="13">
-        <v>1162</v>
+        <v>956</v>
       </c>
       <c r="Z14" s="13">
-        <v>956</v>
+        <v>217</v>
       </c>
       <c r="AA14" s="13">
-        <v>217</v>
+        <v>603</v>
       </c>
       <c r="AB14" s="13">
-        <v>603</v>
+        <v>1354</v>
       </c>
       <c r="AC14" s="13">
-        <v>1354</v>
+        <v>565</v>
       </c>
       <c r="AD14" s="13">
-        <v>565</v>
+        <v>914</v>
       </c>
       <c r="AE14" s="13">
-        <v>914</v>
+        <v>2524</v>
       </c>
       <c r="AF14" s="13">
-        <v>2524</v>
+        <v>463</v>
       </c>
       <c r="AG14" s="13">
-        <v>463</v>
+        <v>931</v>
       </c>
       <c r="AH14" s="13">
-        <v>931</v>
+        <v>1618</v>
       </c>
       <c r="AI14" s="13">
+        <v>834</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>382</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>1503</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>1217</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>1513</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>1920</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>1627</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>1440</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>2190</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>2035</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>2016</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>1234</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>3149</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>2786</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>4405</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>1500</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>1903</v>
+      </c>
+      <c r="AZ14" s="13">
+        <v>3448</v>
+      </c>
+      <c r="BA14" s="13">
         <v>1618</v>
       </c>
-      <c r="AJ14" s="13">
-        <v>834</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>382</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>1503</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>1217</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>1513</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>1920</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>1627</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>1440</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>2190</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>2035</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>2016</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>1234</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>3149</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>2786</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>4405</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>1500</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>1903</v>
-      </c>
-      <c r="BA14" s="13">
-        <v>3448</v>
-      </c>
       <c r="BB14" s="13">
-        <v>1618</v>
+        <v>1476</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2131,113 +2131,113 @@
       <c r="S15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>58</v>
+      <c r="T15" s="11">
+        <v>10400</v>
       </c>
       <c r="U15" s="11">
-        <v>10400</v>
+        <v>24050</v>
       </c>
       <c r="V15" s="11">
-        <v>24050</v>
+        <v>38574</v>
       </c>
       <c r="W15" s="11">
-        <v>38574</v>
+        <v>23116</v>
       </c>
       <c r="X15" s="11">
-        <v>23116</v>
+        <v>29332</v>
       </c>
       <c r="Y15" s="11">
-        <v>29332</v>
+        <v>29478</v>
       </c>
       <c r="Z15" s="11">
-        <v>29478</v>
+        <v>38801</v>
       </c>
       <c r="AA15" s="11">
-        <v>38801</v>
+        <v>32009</v>
       </c>
       <c r="AB15" s="11">
-        <v>32009</v>
+        <v>8281</v>
       </c>
       <c r="AC15" s="11">
-        <v>8281</v>
+        <v>15808</v>
       </c>
       <c r="AD15" s="11">
-        <v>15808</v>
+        <v>29250</v>
       </c>
       <c r="AE15" s="11">
-        <v>29250</v>
+        <v>11908</v>
       </c>
       <c r="AF15" s="11">
-        <v>11908</v>
+        <v>34563</v>
       </c>
       <c r="AG15" s="11">
-        <v>34563</v>
+        <v>12810</v>
       </c>
       <c r="AH15" s="11">
-        <v>12810</v>
+        <v>12532</v>
       </c>
       <c r="AI15" s="11">
-        <v>12532</v>
+        <v>12584</v>
       </c>
       <c r="AJ15" s="11">
-        <v>12584</v>
+        <v>29771</v>
       </c>
       <c r="AK15" s="11">
-        <v>29771</v>
+        <v>32409</v>
       </c>
       <c r="AL15" s="11">
-        <v>32409</v>
+        <v>14300</v>
       </c>
       <c r="AM15" s="11">
-        <v>14300</v>
+        <v>33616</v>
       </c>
       <c r="AN15" s="11">
-        <v>33616</v>
+        <v>30457</v>
       </c>
       <c r="AO15" s="11">
-        <v>30457</v>
+        <v>13263</v>
       </c>
       <c r="AP15" s="11">
-        <v>13263</v>
+        <v>29919</v>
       </c>
       <c r="AQ15" s="11">
-        <v>29919</v>
+        <v>4278</v>
       </c>
       <c r="AR15" s="11">
-        <v>4278</v>
+        <v>20865</v>
       </c>
       <c r="AS15" s="11">
-        <v>20865</v>
+        <v>40515</v>
       </c>
       <c r="AT15" s="11">
-        <v>40515</v>
+        <v>32398</v>
       </c>
       <c r="AU15" s="11">
-        <v>32398</v>
+        <v>28980</v>
       </c>
       <c r="AV15" s="11">
-        <v>28980</v>
+        <v>33839</v>
       </c>
       <c r="AW15" s="11">
-        <v>33839</v>
+        <v>33900</v>
       </c>
       <c r="AX15" s="11">
-        <v>33900</v>
+        <v>34276</v>
       </c>
       <c r="AY15" s="11">
-        <v>34276</v>
+        <v>13737</v>
       </c>
       <c r="AZ15" s="11">
-        <v>13737</v>
+        <v>17875</v>
       </c>
       <c r="BA15" s="11">
-        <v>17875</v>
+        <v>26873</v>
       </c>
       <c r="BB15" s="11">
-        <v>26873</v>
+        <v>28168</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2311,92 +2311,92 @@
       <c r="Z16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" s="13" t="s">
-        <v>58</v>
+      <c r="AA16" s="13">
+        <v>181</v>
       </c>
       <c r="AB16" s="13">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="AC16" s="13">
-        <v>51</v>
+        <v>6824</v>
       </c>
       <c r="AD16" s="13">
-        <v>6824</v>
+        <v>101</v>
       </c>
       <c r="AE16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AF16" s="13">
         <v>13854</v>
       </c>
+      <c r="AF16" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH16" s="13" t="s">
-        <v>58</v>
+      <c r="AH16" s="13">
+        <v>806</v>
       </c>
       <c r="AI16" s="13">
-        <v>806</v>
+        <v>2580</v>
       </c>
       <c r="AJ16" s="13">
-        <v>2580</v>
+        <v>2290</v>
       </c>
       <c r="AK16" s="13">
-        <v>2290</v>
+        <v>2628</v>
       </c>
       <c r="AL16" s="13">
-        <v>2628</v>
+        <v>234</v>
       </c>
       <c r="AM16" s="13">
-        <v>234</v>
+        <v>4805</v>
       </c>
       <c r="AN16" s="13">
-        <v>4805</v>
+        <v>5304</v>
       </c>
       <c r="AO16" s="13">
-        <v>5304</v>
+        <v>5061</v>
       </c>
       <c r="AP16" s="13">
-        <v>5061</v>
+        <v>5381</v>
       </c>
       <c r="AQ16" s="13">
-        <v>5381</v>
+        <v>5440</v>
       </c>
       <c r="AR16" s="13">
-        <v>5440</v>
+        <v>6142</v>
       </c>
       <c r="AS16" s="13">
-        <v>6142</v>
+        <v>6934</v>
       </c>
       <c r="AT16" s="13">
-        <v>6934</v>
+        <v>4163</v>
       </c>
       <c r="AU16" s="13">
-        <v>4163</v>
+        <v>4695</v>
       </c>
       <c r="AV16" s="13">
-        <v>4695</v>
+        <v>5554</v>
       </c>
       <c r="AW16" s="13">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="AX16" s="13">
-        <v>6887</v>
+        <v>6745</v>
       </c>
       <c r="AY16" s="13">
-        <v>6745</v>
+        <v>5301</v>
       </c>
       <c r="AZ16" s="13">
-        <v>5301</v>
+        <v>4833</v>
       </c>
       <c r="BA16" s="13">
-        <v>4833</v>
+        <v>3283</v>
       </c>
       <c r="BB16" s="13">
-        <v>3283</v>
+        <v>3727</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2455,33 +2455,33 @@
       <c r="U17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" s="11">
+      <c r="V17" s="11">
         <v>6080</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y17" s="11">
+      <c r="W17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" s="11">
         <v>3500</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>890</v>
       </c>
       <c r="AA17" s="11">
-        <v>890</v>
+        <v>690</v>
       </c>
       <c r="AB17" s="11">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="AC17" s="11">
-        <v>760</v>
-      </c>
-      <c r="AD17" s="11">
         <v>240</v>
       </c>
+      <c r="AD17" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE17" s="11" t="s">
         <v>58</v>
       </c>
@@ -2494,68 +2494,68 @@
       <c r="AH17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
+      <c r="AI17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>1230</v>
       </c>
       <c r="AL17" s="11">
-        <v>1230</v>
+        <v>402</v>
       </c>
       <c r="AM17" s="11">
-        <v>402</v>
+        <v>1359</v>
       </c>
       <c r="AN17" s="11">
-        <v>1359</v>
+        <v>780</v>
       </c>
       <c r="AO17" s="11">
-        <v>780</v>
+        <v>913</v>
       </c>
       <c r="AP17" s="11">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="AQ17" s="11">
-        <v>930</v>
+        <v>771</v>
       </c>
       <c r="AR17" s="11">
-        <v>771</v>
+        <v>717</v>
       </c>
       <c r="AS17" s="11">
-        <v>717</v>
+        <v>997</v>
       </c>
       <c r="AT17" s="11">
-        <v>997</v>
+        <v>405</v>
       </c>
       <c r="AU17" s="11">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="AV17" s="11">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="AW17" s="11">
-        <v>463</v>
+        <v>864</v>
       </c>
       <c r="AX17" s="11">
-        <v>864</v>
+        <v>991</v>
       </c>
       <c r="AY17" s="11">
-        <v>991</v>
+        <v>1369</v>
       </c>
       <c r="AZ17" s="11">
-        <v>1369</v>
+        <v>1239</v>
       </c>
       <c r="BA17" s="11">
-        <v>1239</v>
+        <v>819</v>
       </c>
       <c r="BB17" s="11">
-        <v>819</v>
+        <v>985</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2614,107 +2614,107 @@
       <c r="U18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" s="13">
+      <c r="V18" s="13">
         <v>9400</v>
       </c>
+      <c r="W18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>5031</v>
       </c>
       <c r="Z18" s="13">
-        <v>5031</v>
+        <v>1614</v>
       </c>
       <c r="AA18" s="13">
-        <v>1614</v>
+        <v>2246</v>
       </c>
       <c r="AB18" s="13">
-        <v>2246</v>
+        <v>5168</v>
       </c>
       <c r="AC18" s="13">
-        <v>5168</v>
+        <v>1819</v>
       </c>
       <c r="AD18" s="13">
-        <v>1819</v>
+        <v>523</v>
       </c>
       <c r="AE18" s="13">
-        <v>523</v>
+        <v>2405</v>
       </c>
       <c r="AF18" s="13">
-        <v>2405</v>
-      </c>
-      <c r="AG18" s="13">
         <v>491</v>
       </c>
-      <c r="AH18" s="13" t="s">
-        <v>58</v>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>2398</v>
       </c>
       <c r="AI18" s="13">
-        <v>2398</v>
+        <v>3466</v>
       </c>
       <c r="AJ18" s="13">
-        <v>3466</v>
+        <v>1487</v>
       </c>
       <c r="AK18" s="13">
-        <v>1487</v>
+        <v>3500</v>
       </c>
       <c r="AL18" s="13">
-        <v>3500</v>
+        <v>2568</v>
       </c>
       <c r="AM18" s="13">
-        <v>2568</v>
+        <v>3149</v>
       </c>
       <c r="AN18" s="13">
-        <v>3149</v>
+        <v>2858</v>
       </c>
       <c r="AO18" s="13">
-        <v>2858</v>
+        <v>2807</v>
       </c>
       <c r="AP18" s="13">
-        <v>2807</v>
+        <v>2274</v>
       </c>
       <c r="AQ18" s="13">
-        <v>2274</v>
+        <v>6566</v>
       </c>
       <c r="AR18" s="13">
-        <v>6566</v>
+        <v>4123</v>
       </c>
       <c r="AS18" s="13">
-        <v>4123</v>
+        <v>4472</v>
       </c>
       <c r="AT18" s="13">
-        <v>4472</v>
+        <v>3144</v>
       </c>
       <c r="AU18" s="13">
-        <v>3144</v>
+        <v>3531</v>
       </c>
       <c r="AV18" s="13">
-        <v>3531</v>
+        <v>2895</v>
       </c>
       <c r="AW18" s="13">
-        <v>2895</v>
+        <v>4511</v>
       </c>
       <c r="AX18" s="13">
-        <v>4511</v>
+        <v>3725</v>
       </c>
       <c r="AY18" s="13">
-        <v>3725</v>
+        <v>2839</v>
       </c>
       <c r="AZ18" s="13">
-        <v>2839</v>
+        <v>3608</v>
       </c>
       <c r="BA18" s="13">
-        <v>3608</v>
+        <v>1255</v>
       </c>
       <c r="BB18" s="13">
-        <v>1255</v>
+        <v>1546</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2766,112 +2766,112 @@
         <v>0</v>
       </c>
       <c r="T19" s="15">
-        <v>0</v>
+        <v>142499</v>
       </c>
       <c r="U19" s="15">
-        <v>142499</v>
+        <v>183554</v>
       </c>
       <c r="V19" s="15">
-        <v>183554</v>
+        <v>231973</v>
       </c>
       <c r="W19" s="15">
-        <v>231973</v>
+        <v>188287</v>
       </c>
       <c r="X19" s="15">
-        <v>188287</v>
+        <v>195201</v>
       </c>
       <c r="Y19" s="15">
-        <v>195201</v>
+        <v>216046</v>
       </c>
       <c r="Z19" s="15">
-        <v>216046</v>
+        <v>163639</v>
       </c>
       <c r="AA19" s="15">
-        <v>163639</v>
+        <v>195725</v>
       </c>
       <c r="AB19" s="15">
-        <v>195725</v>
+        <v>169923</v>
       </c>
       <c r="AC19" s="15">
-        <v>169923</v>
+        <v>171946</v>
       </c>
       <c r="AD19" s="15">
-        <v>171946</v>
+        <v>197665</v>
       </c>
       <c r="AE19" s="15">
-        <v>197665</v>
+        <v>196349</v>
       </c>
       <c r="AF19" s="15">
-        <v>196349</v>
+        <v>201567</v>
       </c>
       <c r="AG19" s="15">
-        <v>201567</v>
+        <v>190295</v>
       </c>
       <c r="AH19" s="15">
-        <v>190295</v>
+        <v>194713</v>
       </c>
       <c r="AI19" s="15">
-        <v>194713</v>
+        <v>142181</v>
       </c>
       <c r="AJ19" s="15">
-        <v>142181</v>
+        <v>143824</v>
       </c>
       <c r="AK19" s="15">
-        <v>143824</v>
+        <v>232679</v>
       </c>
       <c r="AL19" s="15">
-        <v>232679</v>
+        <v>191415</v>
       </c>
       <c r="AM19" s="15">
-        <v>191415</v>
+        <v>229492</v>
       </c>
       <c r="AN19" s="15">
-        <v>229492</v>
+        <v>222183</v>
       </c>
       <c r="AO19" s="15">
-        <v>222183</v>
+        <v>191575</v>
       </c>
       <c r="AP19" s="15">
-        <v>191575</v>
+        <v>169787</v>
       </c>
       <c r="AQ19" s="15">
-        <v>169787</v>
+        <v>202272</v>
       </c>
       <c r="AR19" s="15">
-        <v>202272</v>
+        <v>226303</v>
       </c>
       <c r="AS19" s="15">
-        <v>226303</v>
+        <v>248428</v>
       </c>
       <c r="AT19" s="15">
-        <v>248428</v>
+        <v>192875</v>
       </c>
       <c r="AU19" s="15">
-        <v>192875</v>
+        <v>193375</v>
       </c>
       <c r="AV19" s="15">
-        <v>193375</v>
+        <v>202628</v>
       </c>
       <c r="AW19" s="15">
-        <v>202628</v>
+        <v>241373</v>
       </c>
       <c r="AX19" s="15">
-        <v>241373</v>
+        <v>233692</v>
       </c>
       <c r="AY19" s="15">
-        <v>233692</v>
+        <v>201938</v>
       </c>
       <c r="AZ19" s="15">
-        <v>201938</v>
+        <v>169553</v>
       </c>
       <c r="BA19" s="15">
-        <v>169553</v>
+        <v>164667</v>
       </c>
       <c r="BB19" s="15">
-        <v>164667</v>
+        <v>162972</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>67</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>59</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>60</v>
       </c>
@@ -3176,26 +3176,26 @@
       <c r="AE22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG22" s="13">
+      <c r="AF22" s="13">
         <v>1</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI22" s="13">
-        <v>0</v>
+      <c r="AG22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL22" s="13">
-        <v>0</v>
+      <c r="AK22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM22" s="13" t="s">
         <v>58</v>
@@ -3209,14 +3209,14 @@
       <c r="AP22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
+      <c r="AQ22" s="13">
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="13">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3334,46 +3334,46 @@
         <v>0</v>
       </c>
       <c r="AF23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="15">
         <v>1</v>
       </c>
-      <c r="AH23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="15">
-        <v>0</v>
-      </c>
       <c r="AS23" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="15">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="BA24" s="17"/>
       <c r="BB24" s="17"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>70</v>
       </c>
@@ -3511,8 +3511,8 @@
       <c r="S25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T25" s="15" t="s">
-        <v>58</v>
+      <c r="T25" s="15">
+        <v>0</v>
       </c>
       <c r="U25" s="15">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>71</v>
       </c>
@@ -3669,112 +3669,112 @@
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <v>0</v>
+        <v>142499</v>
       </c>
       <c r="U26" s="19">
-        <v>142499</v>
+        <v>183554</v>
       </c>
       <c r="V26" s="19">
-        <v>183554</v>
+        <v>231973</v>
       </c>
       <c r="W26" s="19">
-        <v>231973</v>
+        <v>188287</v>
       </c>
       <c r="X26" s="19">
-        <v>188287</v>
+        <v>195201</v>
       </c>
       <c r="Y26" s="19">
-        <v>195201</v>
+        <v>216046</v>
       </c>
       <c r="Z26" s="19">
-        <v>216046</v>
+        <v>163639</v>
       </c>
       <c r="AA26" s="19">
-        <v>163639</v>
+        <v>195725</v>
       </c>
       <c r="AB26" s="19">
-        <v>195725</v>
+        <v>169923</v>
       </c>
       <c r="AC26" s="19">
-        <v>169923</v>
+        <v>171946</v>
       </c>
       <c r="AD26" s="19">
-        <v>171946</v>
+        <v>197665</v>
       </c>
       <c r="AE26" s="19">
-        <v>197665</v>
+        <v>196349</v>
       </c>
       <c r="AF26" s="19">
-        <v>196349</v>
+        <v>201568</v>
       </c>
       <c r="AG26" s="19">
-        <v>201568</v>
+        <v>190295</v>
       </c>
       <c r="AH26" s="19">
-        <v>190295</v>
+        <v>194713</v>
       </c>
       <c r="AI26" s="19">
-        <v>194713</v>
+        <v>142181</v>
       </c>
       <c r="AJ26" s="19">
-        <v>142181</v>
+        <v>143824</v>
       </c>
       <c r="AK26" s="19">
-        <v>143824</v>
+        <v>232679</v>
       </c>
       <c r="AL26" s="19">
-        <v>232679</v>
+        <v>191415</v>
       </c>
       <c r="AM26" s="19">
-        <v>191415</v>
+        <v>229492</v>
       </c>
       <c r="AN26" s="19">
-        <v>229492</v>
+        <v>222183</v>
       </c>
       <c r="AO26" s="19">
-        <v>222183</v>
+        <v>191575</v>
       </c>
       <c r="AP26" s="19">
-        <v>191575</v>
+        <v>169787</v>
       </c>
       <c r="AQ26" s="19">
-        <v>169787</v>
+        <v>202272</v>
       </c>
       <c r="AR26" s="19">
-        <v>202272</v>
+        <v>226304</v>
       </c>
       <c r="AS26" s="19">
-        <v>226304</v>
+        <v>248428</v>
       </c>
       <c r="AT26" s="19">
-        <v>248428</v>
+        <v>192875</v>
       </c>
       <c r="AU26" s="19">
-        <v>192875</v>
+        <v>193375</v>
       </c>
       <c r="AV26" s="19">
-        <v>193375</v>
+        <v>202628</v>
       </c>
       <c r="AW26" s="19">
-        <v>202628</v>
+        <v>241373</v>
       </c>
       <c r="AX26" s="19">
-        <v>241373</v>
+        <v>233692</v>
       </c>
       <c r="AY26" s="19">
-        <v>233692</v>
+        <v>201938</v>
       </c>
       <c r="AZ26" s="19">
-        <v>201938</v>
+        <v>169553</v>
       </c>
       <c r="BA26" s="19">
-        <v>169553</v>
+        <v>164667</v>
       </c>
       <c r="BB26" s="19">
-        <v>164667</v>
+        <v>162972</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3884,7 +3884,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3939,7 +3939,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>72</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4151,7 +4151,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4267,33 +4267,33 @@
       <c r="U33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>58</v>
+      <c r="V33" s="11">
+        <v>16734</v>
       </c>
       <c r="W33" s="11">
-        <v>16734</v>
-      </c>
-      <c r="X33" s="11">
         <v>1367</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="11">
+      <c r="X33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y33" s="11">
         <v>37</v>
       </c>
+      <c r="Z33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB33" s="11" t="s">
-        <v>58</v>
+      <c r="AB33" s="11">
+        <v>5321</v>
       </c>
       <c r="AC33" s="11">
-        <v>5321</v>
-      </c>
-      <c r="AD33" s="11">
         <v>45</v>
       </c>
+      <c r="AD33" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE33" s="11" t="s">
         <v>58</v>
       </c>
@@ -4312,44 +4312,44 @@
       <c r="AJ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK33" s="11" t="s">
-        <v>58</v>
+      <c r="AK33" s="11">
+        <v>1484</v>
       </c>
       <c r="AL33" s="11">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="11">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="AN33" s="11">
-        <v>979</v>
+        <v>3298</v>
       </c>
       <c r="AO33" s="11">
-        <v>3298</v>
+        <v>1709</v>
       </c>
       <c r="AP33" s="11">
-        <v>1709</v>
+        <v>4635</v>
       </c>
       <c r="AQ33" s="11">
-        <v>4635</v>
+        <v>13855</v>
       </c>
       <c r="AR33" s="11">
-        <v>13855</v>
+        <v>1698</v>
       </c>
       <c r="AS33" s="11">
-        <v>1698</v>
+        <v>234</v>
       </c>
       <c r="AT33" s="11">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="AU33" s="11">
-        <v>10</v>
+        <v>4165</v>
       </c>
       <c r="AV33" s="11">
-        <v>4165</v>
+        <v>10746</v>
       </c>
       <c r="AW33" s="11">
-        <v>10746</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="11">
         <v>0</v>
@@ -4364,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="BB33" s="11">
-        <v>0</v>
+        <v>45945</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
@@ -4462,35 +4462,35 @@
       <c r="AG34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>0</v>
+      <c r="AH34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ34" s="13" t="s">
-        <v>58</v>
+      <c r="AQ34" s="13">
+        <v>0</v>
       </c>
       <c r="AR34" s="13">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
@@ -4579,113 +4579,113 @@
       <c r="S35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T35" s="11" t="s">
-        <v>58</v>
+      <c r="T35" s="11">
+        <v>28500</v>
       </c>
       <c r="U35" s="11">
-        <v>28500</v>
+        <v>62000</v>
       </c>
       <c r="V35" s="11">
-        <v>62000</v>
+        <v>12485</v>
       </c>
       <c r="W35" s="11">
-        <v>12485</v>
+        <v>6103</v>
       </c>
       <c r="X35" s="11">
-        <v>6103</v>
+        <v>46858</v>
       </c>
       <c r="Y35" s="11">
-        <v>46858</v>
+        <v>50032</v>
       </c>
       <c r="Z35" s="11">
-        <v>50032</v>
+        <v>28155</v>
       </c>
       <c r="AA35" s="11">
-        <v>28155</v>
+        <v>34477</v>
       </c>
       <c r="AB35" s="11">
-        <v>34477</v>
+        <v>46521</v>
       </c>
       <c r="AC35" s="11">
-        <v>46521</v>
+        <v>13926</v>
       </c>
       <c r="AD35" s="11">
-        <v>13926</v>
+        <v>14411</v>
       </c>
       <c r="AE35" s="11">
-        <v>14411</v>
+        <v>55143</v>
       </c>
       <c r="AF35" s="11">
-        <v>55143</v>
+        <v>22000</v>
       </c>
       <c r="AG35" s="11">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="AH35" s="11">
-        <v>21000</v>
+        <v>21293</v>
       </c>
       <c r="AI35" s="11">
-        <v>21293</v>
+        <v>21565</v>
       </c>
       <c r="AJ35" s="11">
-        <v>21565</v>
+        <v>14772</v>
       </c>
       <c r="AK35" s="11">
-        <v>14772</v>
+        <v>22872</v>
       </c>
       <c r="AL35" s="11">
-        <v>22872</v>
+        <v>25848</v>
       </c>
       <c r="AM35" s="11">
-        <v>25848</v>
+        <v>30965</v>
       </c>
       <c r="AN35" s="11">
-        <v>30965</v>
+        <v>15781</v>
       </c>
       <c r="AO35" s="11">
-        <v>15781</v>
+        <v>66759</v>
       </c>
       <c r="AP35" s="11">
-        <v>66759</v>
+        <v>34502</v>
       </c>
       <c r="AQ35" s="11">
-        <v>34502</v>
+        <v>33732</v>
       </c>
       <c r="AR35" s="11">
-        <v>33732</v>
+        <v>33380</v>
       </c>
       <c r="AS35" s="11">
-        <v>33380</v>
+        <v>21216</v>
       </c>
       <c r="AT35" s="11">
-        <v>21216</v>
+        <v>14403</v>
       </c>
       <c r="AU35" s="11">
-        <v>14403</v>
+        <v>31908</v>
       </c>
       <c r="AV35" s="11">
-        <v>31908</v>
+        <v>49863</v>
       </c>
       <c r="AW35" s="11">
-        <v>49863</v>
+        <v>38955</v>
       </c>
       <c r="AX35" s="11">
-        <v>38955</v>
+        <v>40419</v>
       </c>
       <c r="AY35" s="11">
-        <v>40419</v>
+        <v>21694</v>
       </c>
       <c r="AZ35" s="11">
-        <v>21694</v>
+        <v>35070</v>
       </c>
       <c r="BA35" s="11">
-        <v>35070</v>
+        <v>33681</v>
       </c>
       <c r="BB35" s="11">
-        <v>33681</v>
+        <v>83164</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
@@ -4780,11 +4780,11 @@
       <c r="AG36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>0</v>
+      <c r="AH36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ36" s="13" t="s">
         <v>58</v>
@@ -4792,23 +4792,23 @@
       <c r="AK36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO36" s="13">
-        <v>0</v>
+      <c r="AL36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ36" s="13" t="s">
-        <v>58</v>
+      <c r="AQ36" s="13">
+        <v>0</v>
       </c>
       <c r="AR36" s="13">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>62</v>
       </c>
@@ -4897,113 +4897,113 @@
       <c r="S37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T37" s="11" t="s">
-        <v>58</v>
+      <c r="T37" s="11">
+        <v>12950</v>
       </c>
       <c r="U37" s="11">
-        <v>12950</v>
+        <v>24517</v>
       </c>
       <c r="V37" s="11">
-        <v>24517</v>
+        <v>15291</v>
       </c>
       <c r="W37" s="11">
-        <v>15291</v>
+        <v>25533</v>
       </c>
       <c r="X37" s="11">
-        <v>25533</v>
+        <v>7450</v>
       </c>
       <c r="Y37" s="11">
-        <v>7450</v>
+        <v>43522</v>
       </c>
       <c r="Z37" s="11">
-        <v>43522</v>
+        <v>16103</v>
       </c>
       <c r="AA37" s="11">
-        <v>16103</v>
+        <v>32527</v>
       </c>
       <c r="AB37" s="11">
-        <v>32527</v>
+        <v>28224</v>
       </c>
       <c r="AC37" s="11">
-        <v>28224</v>
+        <v>20614</v>
       </c>
       <c r="AD37" s="11">
-        <v>20614</v>
+        <v>13868</v>
       </c>
       <c r="AE37" s="11">
-        <v>13868</v>
+        <v>32268</v>
       </c>
       <c r="AF37" s="11">
-        <v>32268</v>
+        <v>9202</v>
       </c>
       <c r="AG37" s="11">
-        <v>9202</v>
+        <v>27886</v>
       </c>
       <c r="AH37" s="11">
-        <v>27886</v>
+        <v>8834</v>
       </c>
       <c r="AI37" s="11">
-        <v>8834</v>
+        <v>17476</v>
       </c>
       <c r="AJ37" s="11">
-        <v>17476</v>
+        <v>17212</v>
       </c>
       <c r="AK37" s="11">
-        <v>17212</v>
+        <v>20827</v>
       </c>
       <c r="AL37" s="11">
-        <v>20827</v>
+        <v>25569</v>
       </c>
       <c r="AM37" s="11">
-        <v>25569</v>
+        <v>23764</v>
       </c>
       <c r="AN37" s="11">
-        <v>23764</v>
+        <v>21953</v>
       </c>
       <c r="AO37" s="11">
-        <v>21953</v>
+        <v>18024</v>
       </c>
       <c r="AP37" s="11">
-        <v>18024</v>
+        <v>22412</v>
       </c>
       <c r="AQ37" s="11">
-        <v>22412</v>
+        <v>21338</v>
       </c>
       <c r="AR37" s="11">
-        <v>21338</v>
+        <v>18446</v>
       </c>
       <c r="AS37" s="11">
-        <v>18446</v>
+        <v>23813</v>
       </c>
       <c r="AT37" s="11">
-        <v>23813</v>
+        <v>31306</v>
       </c>
       <c r="AU37" s="11">
-        <v>31306</v>
+        <v>35090</v>
       </c>
       <c r="AV37" s="11">
-        <v>35090</v>
+        <v>30167</v>
       </c>
       <c r="AW37" s="11">
-        <v>30167</v>
+        <v>24805</v>
       </c>
       <c r="AX37" s="11">
-        <v>24805</v>
+        <v>19242</v>
       </c>
       <c r="AY37" s="11">
-        <v>19242</v>
+        <v>18012</v>
       </c>
       <c r="AZ37" s="11">
-        <v>18012</v>
+        <v>30191</v>
       </c>
       <c r="BA37" s="11">
-        <v>30191</v>
+        <v>23629</v>
       </c>
       <c r="BB37" s="11">
-        <v>23629</v>
+        <v>32288</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>63</v>
       </c>
@@ -5080,89 +5080,89 @@
       <c r="AA38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC38" s="13">
+      <c r="AB38" s="13">
         <v>181</v>
       </c>
-      <c r="AD38" s="13" t="s">
-        <v>58</v>
+      <c r="AC38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>64</v>
       </c>
       <c r="AE38" s="13">
-        <v>64</v>
-      </c>
-      <c r="AF38" s="13">
         <v>578</v>
       </c>
+      <c r="AF38" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>58</v>
+      <c r="AH38" s="13">
+        <v>743</v>
       </c>
       <c r="AI38" s="13">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="AJ38" s="13">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="AK38" s="13">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="AL38" s="13">
-        <v>252</v>
+        <v>449</v>
       </c>
       <c r="AM38" s="13">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="AN38" s="13">
-        <v>595</v>
+        <v>343</v>
       </c>
       <c r="AO38" s="13">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="AP38" s="13">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="AQ38" s="13">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AR38" s="13">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="AS38" s="13">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AT38" s="13">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AU38" s="13">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AV38" s="13">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AW38" s="13">
-        <v>310</v>
+        <v>736</v>
       </c>
       <c r="AX38" s="13">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AY38" s="13">
-        <v>708</v>
+        <v>258</v>
       </c>
       <c r="AZ38" s="13">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="BA38" s="13">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="BB38" s="13">
-        <v>423</v>
+        <v>379</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -5221,12 +5221,12 @@
       <c r="U39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W39" s="11">
+      <c r="V39" s="11">
         <v>2944</v>
       </c>
+      <c r="W39" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
@@ -5269,59 +5269,59 @@
       <c r="AK39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>0</v>
+      <c r="AL39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ39" s="11" t="s">
-        <v>58</v>
+      <c r="AQ39" s="11">
+        <v>1868</v>
       </c>
       <c r="AR39" s="11">
-        <v>1868</v>
+        <v>2076</v>
       </c>
       <c r="AS39" s="11">
-        <v>2076</v>
+        <v>3527</v>
       </c>
       <c r="AT39" s="11">
-        <v>3527</v>
+        <v>3575</v>
       </c>
       <c r="AU39" s="11">
-        <v>3575</v>
+        <v>1452</v>
       </c>
       <c r="AV39" s="11">
-        <v>1452</v>
+        <v>879</v>
       </c>
       <c r="AW39" s="11">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="11">
         <v>0</v>
       </c>
       <c r="AY39" s="11">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="11">
         <v>0</v>
       </c>
       <c r="BB39" s="11">
-        <v>0</v>
+        <v>4071</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>65</v>
       </c>
@@ -5407,44 +5407,44 @@
       <c r="AD40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF40" s="13">
+      <c r="AE40" s="13">
         <v>96</v>
       </c>
+      <c r="AF40" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13" t="s">
-        <v>58</v>
+      <c r="AH40" s="13">
+        <v>0</v>
       </c>
       <c r="AI40" s="13">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="AJ40" s="13">
-        <v>3050</v>
+        <v>2807</v>
       </c>
       <c r="AK40" s="13">
-        <v>2807</v>
+        <v>6252</v>
       </c>
       <c r="AL40" s="13">
-        <v>6252</v>
+        <v>3980</v>
       </c>
       <c r="AM40" s="13">
-        <v>3980</v>
+        <v>7599</v>
       </c>
       <c r="AN40" s="13">
-        <v>7599</v>
+        <v>285</v>
       </c>
       <c r="AO40" s="13">
-        <v>285</v>
-      </c>
-      <c r="AP40" s="13">
         <v>26</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>58</v>
+      <c r="AP40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>0</v>
       </c>
       <c r="AR40" s="13">
         <v>0</v>
@@ -5462,25 +5462,25 @@
         <v>0</v>
       </c>
       <c r="AW40" s="13">
-        <v>0</v>
+        <v>9959</v>
       </c>
       <c r="AX40" s="13">
-        <v>9959</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="13">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="AZ40" s="13">
-        <v>1040</v>
+        <v>3968</v>
       </c>
       <c r="BA40" s="13">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="13">
-        <v>0</v>
+        <v>4995</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>74</v>
       </c>
@@ -5532,112 +5532,112 @@
         <v>0</v>
       </c>
       <c r="T41" s="15">
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="U41" s="15">
-        <v>41450</v>
+        <v>86517</v>
       </c>
       <c r="V41" s="15">
-        <v>86517</v>
+        <v>47454</v>
       </c>
       <c r="W41" s="15">
-        <v>47454</v>
+        <v>33003</v>
       </c>
       <c r="X41" s="15">
-        <v>33003</v>
+        <v>54308</v>
       </c>
       <c r="Y41" s="15">
-        <v>54308</v>
+        <v>93591</v>
       </c>
       <c r="Z41" s="15">
-        <v>93591</v>
+        <v>44258</v>
       </c>
       <c r="AA41" s="15">
-        <v>44258</v>
+        <v>67004</v>
       </c>
       <c r="AB41" s="15">
-        <v>67004</v>
+        <v>80247</v>
       </c>
       <c r="AC41" s="15">
-        <v>80247</v>
+        <v>34585</v>
       </c>
       <c r="AD41" s="15">
-        <v>34585</v>
+        <v>28343</v>
       </c>
       <c r="AE41" s="15">
-        <v>28343</v>
+        <v>88085</v>
       </c>
       <c r="AF41" s="15">
-        <v>88085</v>
+        <v>31202</v>
       </c>
       <c r="AG41" s="15">
-        <v>31202</v>
+        <v>48886</v>
       </c>
       <c r="AH41" s="15">
-        <v>48886</v>
+        <v>30870</v>
       </c>
       <c r="AI41" s="15">
-        <v>30870</v>
+        <v>42125</v>
       </c>
       <c r="AJ41" s="15">
-        <v>42125</v>
+        <v>35005</v>
       </c>
       <c r="AK41" s="15">
-        <v>35005</v>
+        <v>51687</v>
       </c>
       <c r="AL41" s="15">
-        <v>51687</v>
+        <v>55846</v>
       </c>
       <c r="AM41" s="15">
-        <v>55846</v>
+        <v>63902</v>
       </c>
       <c r="AN41" s="15">
-        <v>63902</v>
+        <v>41660</v>
       </c>
       <c r="AO41" s="15">
-        <v>41660</v>
+        <v>86639</v>
       </c>
       <c r="AP41" s="15">
-        <v>86639</v>
+        <v>61917</v>
       </c>
       <c r="AQ41" s="15">
-        <v>61917</v>
+        <v>71113</v>
       </c>
       <c r="AR41" s="15">
-        <v>71113</v>
+        <v>55724</v>
       </c>
       <c r="AS41" s="15">
-        <v>55724</v>
+        <v>48871</v>
       </c>
       <c r="AT41" s="15">
-        <v>48871</v>
+        <v>49462</v>
       </c>
       <c r="AU41" s="15">
-        <v>49462</v>
+        <v>72693</v>
       </c>
       <c r="AV41" s="15">
-        <v>72693</v>
+        <v>91965</v>
       </c>
       <c r="AW41" s="15">
-        <v>91965</v>
+        <v>74455</v>
       </c>
       <c r="AX41" s="15">
-        <v>74455</v>
+        <v>60369</v>
       </c>
       <c r="AY41" s="15">
-        <v>60369</v>
+        <v>42306</v>
       </c>
       <c r="AZ41" s="15">
-        <v>42306</v>
+        <v>69645</v>
       </c>
       <c r="BA41" s="15">
-        <v>69645</v>
+        <v>57733</v>
       </c>
       <c r="BB41" s="15">
-        <v>57733</v>
+        <v>170842</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>75</v>
       </c>
@@ -5694,7 +5694,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -5912,15 +5912,15 @@
       <c r="U44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V44" s="13" t="s">
-        <v>58</v>
+      <c r="V44" s="13">
+        <v>89975</v>
       </c>
       <c r="W44" s="13">
-        <v>89975</v>
-      </c>
-      <c r="X44" s="13">
         <v>42025</v>
       </c>
+      <c r="X44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y44" s="13" t="s">
         <v>58</v>
       </c>
@@ -5930,42 +5930,42 @@
       <c r="AA44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB44" s="13" t="s">
-        <v>58</v>
+      <c r="AB44" s="13">
+        <v>59939</v>
       </c>
       <c r="AC44" s="13">
-        <v>59939</v>
+        <v>25</v>
       </c>
       <c r="AD44" s="13">
-        <v>25</v>
-      </c>
-      <c r="AE44" s="13">
         <v>29796</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>58</v>
+      <c r="AE44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF44" s="13">
+        <v>59976</v>
       </c>
       <c r="AG44" s="13">
-        <v>59976</v>
+        <v>29999</v>
       </c>
       <c r="AH44" s="13">
-        <v>29999</v>
-      </c>
-      <c r="AI44" s="13">
         <v>30012</v>
       </c>
+      <c r="AI44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK44" s="13" t="s">
-        <v>58</v>
+      <c r="AK44" s="13">
+        <v>38661</v>
       </c>
       <c r="AL44" s="13">
-        <v>38661</v>
-      </c>
-      <c r="AM44" s="13">
         <v>21312</v>
       </c>
+      <c r="AM44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN44" s="13" t="s">
         <v>58</v>
       </c>
@@ -5975,14 +5975,14 @@
       <c r="AP44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ44" s="13" t="s">
-        <v>58</v>
+      <c r="AQ44" s="13">
+        <v>59909</v>
       </c>
       <c r="AR44" s="13">
-        <v>59909</v>
+        <v>30041</v>
       </c>
       <c r="AS44" s="13">
-        <v>30041</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="13">
         <v>0</v>
@@ -6003,16 +6003,16 @@
         <v>0</v>
       </c>
       <c r="AZ44" s="13">
-        <v>0</v>
+        <v>29977</v>
       </c>
       <c r="BA44" s="13">
-        <v>29977</v>
+        <v>29945</v>
       </c>
       <c r="BB44" s="13">
-        <v>29945</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>76</v>
       </c>
@@ -6070,13 +6070,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="15">
-        <v>0</v>
+        <v>89975</v>
       </c>
       <c r="W45" s="15">
-        <v>89975</v>
+        <v>42025</v>
       </c>
       <c r="X45" s="15">
-        <v>42025</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="15">
         <v>0</v>
@@ -6088,40 +6088,40 @@
         <v>0</v>
       </c>
       <c r="AB45" s="15">
-        <v>0</v>
+        <v>59939</v>
       </c>
       <c r="AC45" s="15">
-        <v>59939</v>
+        <v>25</v>
       </c>
       <c r="AD45" s="15">
-        <v>25</v>
+        <v>29796</v>
       </c>
       <c r="AE45" s="15">
-        <v>29796</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="15">
-        <v>0</v>
+        <v>59976</v>
       </c>
       <c r="AG45" s="15">
-        <v>59976</v>
+        <v>29999</v>
       </c>
       <c r="AH45" s="15">
-        <v>29999</v>
+        <v>30012</v>
       </c>
       <c r="AI45" s="15">
-        <v>30012</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="15">
         <v>0</v>
       </c>
       <c r="AK45" s="15">
-        <v>0</v>
+        <v>38661</v>
       </c>
       <c r="AL45" s="15">
-        <v>38661</v>
+        <v>21312</v>
       </c>
       <c r="AM45" s="15">
-        <v>21312</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="15">
         <v>0</v>
@@ -6133,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="15">
-        <v>0</v>
+        <v>59909</v>
       </c>
       <c r="AR45" s="15">
-        <v>59909</v>
+        <v>30041</v>
       </c>
       <c r="AS45" s="15">
-        <v>30041</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="15">
         <v>0</v>
@@ -6160,16 +6160,16 @@
         <v>0</v>
       </c>
       <c r="AZ45" s="15">
-        <v>0</v>
+        <v>29977</v>
       </c>
       <c r="BA45" s="15">
-        <v>29977</v>
+        <v>29945</v>
       </c>
       <c r="BB45" s="15">
-        <v>29945</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>69</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="BA46" s="17"/>
       <c r="BB46" s="17"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>70</v>
       </c>
@@ -6277,8 +6277,8 @@
       <c r="S47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T47" s="15" t="s">
-        <v>58</v>
+      <c r="T47" s="15">
+        <v>0</v>
       </c>
       <c r="U47" s="15">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>77</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="BA48" s="17"/>
       <c r="BB48" s="17"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>78</v>
       </c>
@@ -6491,8 +6491,8 @@
       <c r="S49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T49" s="15" t="s">
-        <v>58</v>
+      <c r="T49" s="15">
+        <v>0</v>
       </c>
       <c r="U49" s="15">
         <v>0</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>71</v>
       </c>
@@ -6649,112 +6649,112 @@
         <v>0</v>
       </c>
       <c r="T50" s="19">
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="U50" s="19">
-        <v>41450</v>
+        <v>86517</v>
       </c>
       <c r="V50" s="19">
-        <v>86517</v>
+        <v>137429</v>
       </c>
       <c r="W50" s="19">
-        <v>137429</v>
+        <v>75028</v>
       </c>
       <c r="X50" s="19">
-        <v>75028</v>
+        <v>54308</v>
       </c>
       <c r="Y50" s="19">
-        <v>54308</v>
+        <v>93591</v>
       </c>
       <c r="Z50" s="19">
-        <v>93591</v>
+        <v>44258</v>
       </c>
       <c r="AA50" s="19">
-        <v>44258</v>
+        <v>67004</v>
       </c>
       <c r="AB50" s="19">
-        <v>67004</v>
+        <v>140186</v>
       </c>
       <c r="AC50" s="19">
-        <v>140186</v>
+        <v>34610</v>
       </c>
       <c r="AD50" s="19">
-        <v>34610</v>
+        <v>58139</v>
       </c>
       <c r="AE50" s="19">
-        <v>58139</v>
+        <v>88085</v>
       </c>
       <c r="AF50" s="19">
-        <v>88085</v>
+        <v>91178</v>
       </c>
       <c r="AG50" s="19">
-        <v>91178</v>
+        <v>78885</v>
       </c>
       <c r="AH50" s="19">
-        <v>78885</v>
+        <v>60882</v>
       </c>
       <c r="AI50" s="19">
-        <v>60882</v>
+        <v>42125</v>
       </c>
       <c r="AJ50" s="19">
-        <v>42125</v>
+        <v>35005</v>
       </c>
       <c r="AK50" s="19">
-        <v>35005</v>
+        <v>90348</v>
       </c>
       <c r="AL50" s="19">
-        <v>90348</v>
+        <v>77158</v>
       </c>
       <c r="AM50" s="19">
-        <v>77158</v>
+        <v>63902</v>
       </c>
       <c r="AN50" s="19">
-        <v>63902</v>
+        <v>41660</v>
       </c>
       <c r="AO50" s="19">
-        <v>41660</v>
+        <v>86639</v>
       </c>
       <c r="AP50" s="19">
-        <v>86639</v>
+        <v>61917</v>
       </c>
       <c r="AQ50" s="19">
-        <v>61917</v>
+        <v>131022</v>
       </c>
       <c r="AR50" s="19">
-        <v>131022</v>
+        <v>85765</v>
       </c>
       <c r="AS50" s="19">
-        <v>85765</v>
+        <v>48871</v>
       </c>
       <c r="AT50" s="19">
-        <v>48871</v>
+        <v>49462</v>
       </c>
       <c r="AU50" s="19">
-        <v>49462</v>
+        <v>72693</v>
       </c>
       <c r="AV50" s="19">
-        <v>72693</v>
+        <v>91965</v>
       </c>
       <c r="AW50" s="19">
-        <v>91965</v>
+        <v>74455</v>
       </c>
       <c r="AX50" s="19">
-        <v>74455</v>
+        <v>60369</v>
       </c>
       <c r="AY50" s="19">
-        <v>60369</v>
+        <v>42306</v>
       </c>
       <c r="AZ50" s="19">
-        <v>42306</v>
+        <v>99622</v>
       </c>
       <c r="BA50" s="19">
-        <v>99622</v>
+        <v>87678</v>
       </c>
       <c r="BB50" s="19">
-        <v>87678</v>
+        <v>170842</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6809,7 +6809,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6864,7 +6864,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6919,7 +6919,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>79</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7131,7 +7131,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>80</v>
       </c>
@@ -7188,7 +7188,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7241,50 +7241,50 @@
       <c r="S57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T57" s="11" t="s">
-        <v>58</v>
+      <c r="T57" s="11">
+        <v>0</v>
       </c>
       <c r="U57" s="11">
         <v>0</v>
       </c>
       <c r="V57" s="11">
-        <v>0</v>
+        <v>14392</v>
       </c>
       <c r="W57" s="11">
-        <v>14392</v>
+        <v>27037</v>
       </c>
       <c r="X57" s="11">
-        <v>27037</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="11">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="Z57" s="11">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="11">
         <v>0</v>
       </c>
       <c r="AB57" s="11">
-        <v>0</v>
+        <v>17818</v>
       </c>
       <c r="AC57" s="11">
-        <v>17818</v>
+        <v>88</v>
       </c>
       <c r="AD57" s="11">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="11">
         <v>0</v>
       </c>
-      <c r="AF57" s="11">
-        <v>0</v>
+      <c r="AF57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH57" s="11" t="s">
-        <v>58</v>
+      <c r="AH57" s="11">
+        <v>0</v>
       </c>
       <c r="AI57" s="11">
         <v>0</v>
@@ -7293,43 +7293,43 @@
         <v>0</v>
       </c>
       <c r="AK57" s="11">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="AL57" s="11">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="11">
-        <v>0</v>
+        <v>10976</v>
       </c>
       <c r="AN57" s="11">
-        <v>10976</v>
+        <v>42210</v>
       </c>
       <c r="AO57" s="11">
-        <v>42210</v>
+        <v>17208</v>
       </c>
       <c r="AP57" s="11">
-        <v>17208</v>
+        <v>137054</v>
       </c>
       <c r="AQ57" s="11">
-        <v>137054</v>
+        <v>219665</v>
       </c>
       <c r="AR57" s="11">
-        <v>219665</v>
+        <v>13155</v>
       </c>
       <c r="AS57" s="11">
-        <v>13155</v>
+        <v>7486</v>
       </c>
       <c r="AT57" s="11">
-        <v>7486</v>
+        <v>3</v>
       </c>
       <c r="AU57" s="11">
-        <v>3</v>
+        <v>29320</v>
       </c>
       <c r="AV57" s="11">
-        <v>29320</v>
+        <v>75650</v>
       </c>
       <c r="AW57" s="11">
-        <v>75650</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="11">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="BB57" s="11">
-        <v>0</v>
+        <v>944172</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7400,8 +7400,8 @@
       <c r="S58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T58" s="13" t="s">
-        <v>58</v>
+      <c r="T58" s="13">
+        <v>0</v>
       </c>
       <c r="U58" s="13">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7559,113 +7559,113 @@
       <c r="S59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T59" s="11" t="s">
-        <v>58</v>
+      <c r="T59" s="11">
+        <v>1303971</v>
       </c>
       <c r="U59" s="11">
-        <v>1303971</v>
+        <v>3165612</v>
       </c>
       <c r="V59" s="11">
-        <v>3165612</v>
+        <v>641039</v>
       </c>
       <c r="W59" s="11">
-        <v>641039</v>
+        <v>410484</v>
       </c>
       <c r="X59" s="11">
-        <v>410484</v>
+        <v>4168991</v>
       </c>
       <c r="Y59" s="11">
-        <v>4168991</v>
+        <v>3967770</v>
       </c>
       <c r="Z59" s="11">
-        <v>3967770</v>
+        <v>2859165</v>
       </c>
       <c r="AA59" s="11">
-        <v>2859165</v>
+        <v>3660946</v>
       </c>
       <c r="AB59" s="11">
-        <v>3660946</v>
+        <v>4639843</v>
       </c>
       <c r="AC59" s="11">
-        <v>4639843</v>
+        <v>1345417</v>
       </c>
       <c r="AD59" s="11">
-        <v>1345417</v>
+        <v>1490805</v>
       </c>
       <c r="AE59" s="11">
-        <v>1490805</v>
+        <v>5474269</v>
       </c>
       <c r="AF59" s="11">
-        <v>5474269</v>
+        <v>2450328</v>
       </c>
       <c r="AG59" s="11">
-        <v>2450328</v>
+        <v>2508478</v>
       </c>
       <c r="AH59" s="11">
-        <v>2508478</v>
+        <v>2519680</v>
       </c>
       <c r="AI59" s="11">
-        <v>2519680</v>
+        <v>2840550</v>
       </c>
       <c r="AJ59" s="11">
-        <v>2840550</v>
+        <v>2157230</v>
       </c>
       <c r="AK59" s="11">
-        <v>2157230</v>
+        <v>3177604</v>
       </c>
       <c r="AL59" s="11">
-        <v>3177604</v>
+        <v>3379142</v>
       </c>
       <c r="AM59" s="11">
-        <v>3379142</v>
+        <v>4146765</v>
       </c>
       <c r="AN59" s="11">
-        <v>4146765</v>
+        <v>2050885</v>
       </c>
       <c r="AO59" s="11">
-        <v>2050885</v>
+        <v>8639289</v>
       </c>
       <c r="AP59" s="11">
-        <v>8639289</v>
+        <v>4299169</v>
       </c>
       <c r="AQ59" s="11">
-        <v>4299169</v>
+        <v>4435163</v>
       </c>
       <c r="AR59" s="11">
-        <v>4435163</v>
+        <v>4667671</v>
       </c>
       <c r="AS59" s="11">
-        <v>4667671</v>
+        <v>3166485</v>
       </c>
       <c r="AT59" s="11">
-        <v>3166485</v>
+        <v>2074940</v>
       </c>
       <c r="AU59" s="11">
-        <v>2074940</v>
+        <v>4485812</v>
       </c>
       <c r="AV59" s="11">
-        <v>4485812</v>
+        <v>6648195</v>
       </c>
       <c r="AW59" s="11">
-        <v>6648195</v>
+        <v>4732309</v>
       </c>
       <c r="AX59" s="11">
-        <v>4732309</v>
+        <v>5254114</v>
       </c>
       <c r="AY59" s="11">
-        <v>5254114</v>
+        <v>2902069</v>
       </c>
       <c r="AZ59" s="11">
-        <v>2902069</v>
+        <v>4708497</v>
       </c>
       <c r="BA59" s="11">
-        <v>4708497</v>
+        <v>5113321</v>
       </c>
       <c r="BB59" s="11">
-        <v>5113321</v>
+        <v>13999335</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -7721,8 +7721,8 @@
       <c r="T60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="13" t="s">
-        <v>58</v>
+      <c r="U60" s="13">
+        <v>0</v>
       </c>
       <c r="V60" s="13">
         <v>0</v>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>62</v>
       </c>
@@ -7877,113 +7877,113 @@
       <c r="S61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T61" s="11" t="s">
-        <v>58</v>
+      <c r="T61" s="11">
+        <v>654246</v>
       </c>
       <c r="U61" s="11">
-        <v>654246</v>
+        <v>1302124</v>
       </c>
       <c r="V61" s="11">
-        <v>1302124</v>
+        <v>688571</v>
       </c>
       <c r="W61" s="11">
-        <v>688571</v>
+        <v>1966809</v>
       </c>
       <c r="X61" s="11">
-        <v>1966809</v>
+        <v>618059</v>
       </c>
       <c r="Y61" s="11">
-        <v>618059</v>
+        <v>3568433</v>
       </c>
       <c r="Z61" s="11">
-        <v>3568433</v>
+        <v>1667546</v>
       </c>
       <c r="AA61" s="11">
-        <v>1667546</v>
+        <v>3605296</v>
       </c>
       <c r="AB61" s="11">
-        <v>3605296</v>
+        <v>2902364</v>
       </c>
       <c r="AC61" s="11">
-        <v>2902364</v>
+        <v>2214369</v>
       </c>
       <c r="AD61" s="11">
-        <v>2214369</v>
+        <v>1553225</v>
       </c>
       <c r="AE61" s="11">
-        <v>1553225</v>
+        <v>3637914</v>
       </c>
       <c r="AF61" s="11">
-        <v>3637914</v>
+        <v>1067346</v>
       </c>
       <c r="AG61" s="11">
-        <v>1067346</v>
+        <v>3519609</v>
       </c>
       <c r="AH61" s="11">
-        <v>3519609</v>
+        <v>1052298</v>
       </c>
       <c r="AI61" s="11">
-        <v>1052298</v>
+        <v>2429680</v>
       </c>
       <c r="AJ61" s="11">
-        <v>2429680</v>
+        <v>2511782</v>
       </c>
       <c r="AK61" s="11">
-        <v>2511782</v>
+        <v>3240571</v>
       </c>
       <c r="AL61" s="11">
-        <v>3240571</v>
+        <v>3555247</v>
       </c>
       <c r="AM61" s="11">
-        <v>3555247</v>
+        <v>3409874</v>
       </c>
       <c r="AN61" s="11">
-        <v>3409874</v>
+        <v>3204470</v>
       </c>
       <c r="AO61" s="11">
-        <v>3204470</v>
+        <v>2510284</v>
       </c>
       <c r="AP61" s="11">
-        <v>2510284</v>
+        <v>3202108</v>
       </c>
       <c r="AQ61" s="11">
-        <v>3202108</v>
+        <v>3131634</v>
       </c>
       <c r="AR61" s="11">
-        <v>3131634</v>
+        <v>2774540</v>
       </c>
       <c r="AS61" s="11">
-        <v>2774540</v>
+        <v>3697408</v>
       </c>
       <c r="AT61" s="11">
-        <v>3697408</v>
+        <v>5020076</v>
       </c>
       <c r="AU61" s="11">
-        <v>5020076</v>
+        <v>5617313</v>
       </c>
       <c r="AV61" s="11">
-        <v>5617313</v>
+        <v>4520013</v>
       </c>
       <c r="AW61" s="11">
-        <v>4520013</v>
+        <v>3638292</v>
       </c>
       <c r="AX61" s="11">
-        <v>3638292</v>
+        <v>2873512</v>
       </c>
       <c r="AY61" s="11">
-        <v>2873512</v>
+        <v>2713536</v>
       </c>
       <c r="AZ61" s="11">
-        <v>2713536</v>
+        <v>4509332</v>
       </c>
       <c r="BA61" s="11">
-        <v>4509332</v>
+        <v>3734989</v>
       </c>
       <c r="BB61" s="11">
-        <v>3734989</v>
+        <v>5878328</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>63</v>
       </c>
@@ -8057,92 +8057,92 @@
       <c r="Z62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA62" s="13" t="s">
-        <v>58</v>
+      <c r="AA62" s="13">
+        <v>0</v>
       </c>
       <c r="AB62" s="13">
-        <v>0</v>
+        <v>8278</v>
       </c>
       <c r="AC62" s="13">
-        <v>8278</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="13">
-        <v>0</v>
+        <v>3126</v>
       </c>
       <c r="AE62" s="13">
-        <v>3126</v>
-      </c>
-      <c r="AF62" s="13">
         <v>29419</v>
       </c>
+      <c r="AF62" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH62" s="13" t="s">
-        <v>58</v>
+      <c r="AH62" s="13">
+        <v>44358</v>
       </c>
       <c r="AI62" s="13">
-        <v>44358</v>
+        <v>1758</v>
       </c>
       <c r="AJ62" s="13">
-        <v>1758</v>
+        <v>14260</v>
       </c>
       <c r="AK62" s="13">
-        <v>14260</v>
+        <v>20217</v>
       </c>
       <c r="AL62" s="13">
-        <v>20217</v>
+        <v>32597</v>
       </c>
       <c r="AM62" s="13">
-        <v>32597</v>
+        <v>37663</v>
       </c>
       <c r="AN62" s="13">
-        <v>37663</v>
+        <v>23501</v>
       </c>
       <c r="AO62" s="13">
-        <v>23501</v>
+        <v>10774</v>
       </c>
       <c r="AP62" s="13">
-        <v>10774</v>
+        <v>11557</v>
       </c>
       <c r="AQ62" s="13">
-        <v>11557</v>
+        <v>10008</v>
       </c>
       <c r="AR62" s="13">
-        <v>10008</v>
+        <v>4605</v>
       </c>
       <c r="AS62" s="13">
-        <v>4605</v>
+        <v>6664</v>
       </c>
       <c r="AT62" s="13">
-        <v>6664</v>
+        <v>11395</v>
       </c>
       <c r="AU62" s="13">
-        <v>11395</v>
+        <v>11182</v>
       </c>
       <c r="AV62" s="13">
-        <v>11182</v>
+        <v>32470</v>
       </c>
       <c r="AW62" s="13">
-        <v>32470</v>
+        <v>65370</v>
       </c>
       <c r="AX62" s="13">
-        <v>65370</v>
+        <v>48487</v>
       </c>
       <c r="AY62" s="13">
-        <v>48487</v>
+        <v>29279</v>
       </c>
       <c r="AZ62" s="13">
-        <v>29279</v>
+        <v>32551</v>
       </c>
       <c r="BA62" s="13">
-        <v>32551</v>
+        <v>39209</v>
       </c>
       <c r="BB62" s="13">
-        <v>39209</v>
+        <v>31368</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>64</v>
       </c>
@@ -8201,11 +8201,11 @@
       <c r="U63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V63" s="11" t="s">
-        <v>58</v>
+      <c r="V63" s="11">
+        <v>47693</v>
       </c>
       <c r="W63" s="11">
-        <v>47693</v>
+        <v>0</v>
       </c>
       <c r="X63" s="11">
         <v>0</v>
@@ -8231,14 +8231,14 @@
       <c r="AE63" s="11">
         <v>0</v>
       </c>
-      <c r="AF63" s="11">
-        <v>0</v>
+      <c r="AF63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH63" s="11" t="s">
-        <v>58</v>
+      <c r="AH63" s="11">
+        <v>0</v>
       </c>
       <c r="AI63" s="11">
         <v>0</v>
@@ -8265,43 +8265,43 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="11">
-        <v>0</v>
+        <v>67295</v>
       </c>
       <c r="AR63" s="11">
-        <v>67295</v>
+        <v>75318</v>
       </c>
       <c r="AS63" s="11">
-        <v>75318</v>
+        <v>181305</v>
       </c>
       <c r="AT63" s="11">
-        <v>181305</v>
+        <v>207207</v>
       </c>
       <c r="AU63" s="11">
-        <v>207207</v>
+        <v>84139</v>
       </c>
       <c r="AV63" s="11">
-        <v>84139</v>
+        <v>50959</v>
       </c>
       <c r="AW63" s="11">
-        <v>50959</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="11">
         <v>0</v>
       </c>
       <c r="AY63" s="11">
-        <v>0</v>
+        <v>75457</v>
       </c>
       <c r="AZ63" s="11">
-        <v>75457</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="11">
         <v>0</v>
       </c>
       <c r="BB63" s="11">
-        <v>0</v>
+        <v>335014</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>65</v>
       </c>
@@ -8360,8 +8360,8 @@
       <c r="U64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V64" s="13" t="s">
-        <v>58</v>
+      <c r="V64" s="13">
+        <v>0</v>
       </c>
       <c r="W64" s="13">
         <v>0</v>
@@ -8388,10 +8388,10 @@
         <v>0</v>
       </c>
       <c r="AE64" s="13">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="AF64" s="13">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="13">
         <v>0</v>
@@ -8400,28 +8400,28 @@
         <v>0</v>
       </c>
       <c r="AI64" s="13">
-        <v>0</v>
+        <v>104008</v>
       </c>
       <c r="AJ64" s="13">
-        <v>104008</v>
+        <v>95742</v>
       </c>
       <c r="AK64" s="13">
-        <v>95742</v>
+        <v>213161</v>
       </c>
       <c r="AL64" s="13">
-        <v>213161</v>
+        <v>135734</v>
       </c>
       <c r="AM64" s="13">
-        <v>135734</v>
+        <v>259126</v>
       </c>
       <c r="AN64" s="13">
-        <v>259126</v>
+        <v>9715</v>
       </c>
       <c r="AO64" s="13">
-        <v>9715</v>
+        <v>887</v>
       </c>
       <c r="AP64" s="13">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="13">
         <v>0</v>
@@ -8442,25 +8442,25 @@
         <v>0</v>
       </c>
       <c r="AW64" s="13">
-        <v>0</v>
+        <v>445179</v>
       </c>
       <c r="AX64" s="13">
-        <v>445179</v>
+        <v>0</v>
       </c>
       <c r="AY64" s="13">
-        <v>0</v>
+        <v>47077</v>
       </c>
       <c r="AZ64" s="13">
-        <v>47077</v>
+        <v>179730</v>
       </c>
       <c r="BA64" s="13">
-        <v>179730</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="13">
-        <v>0</v>
+        <v>320158</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>74</v>
       </c>
@@ -8512,112 +8512,112 @@
         <v>0</v>
       </c>
       <c r="T65" s="15">
-        <v>0</v>
+        <v>1958217</v>
       </c>
       <c r="U65" s="15">
-        <v>1958217</v>
+        <v>4467736</v>
       </c>
       <c r="V65" s="15">
-        <v>4467736</v>
+        <v>1391695</v>
       </c>
       <c r="W65" s="15">
-        <v>1391695</v>
+        <v>2404330</v>
       </c>
       <c r="X65" s="15">
-        <v>2404330</v>
+        <v>4787050</v>
       </c>
       <c r="Y65" s="15">
-        <v>4787050</v>
+        <v>7537315</v>
       </c>
       <c r="Z65" s="15">
-        <v>7537315</v>
+        <v>4526711</v>
       </c>
       <c r="AA65" s="15">
-        <v>4526711</v>
+        <v>7266242</v>
       </c>
       <c r="AB65" s="15">
-        <v>7266242</v>
+        <v>7568303</v>
       </c>
       <c r="AC65" s="15">
-        <v>7568303</v>
+        <v>3559874</v>
       </c>
       <c r="AD65" s="15">
-        <v>3559874</v>
+        <v>3047156</v>
       </c>
       <c r="AE65" s="15">
-        <v>3047156</v>
+        <v>9146398</v>
       </c>
       <c r="AF65" s="15">
-        <v>9146398</v>
+        <v>3517674</v>
       </c>
       <c r="AG65" s="15">
-        <v>3517674</v>
+        <v>6028087</v>
       </c>
       <c r="AH65" s="15">
-        <v>6028087</v>
+        <v>3616336</v>
       </c>
       <c r="AI65" s="15">
-        <v>3616336</v>
+        <v>5375996</v>
       </c>
       <c r="AJ65" s="15">
-        <v>5375996</v>
+        <v>4779014</v>
       </c>
       <c r="AK65" s="15">
-        <v>4779014</v>
+        <v>6652295</v>
       </c>
       <c r="AL65" s="15">
-        <v>6652295</v>
+        <v>7102720</v>
       </c>
       <c r="AM65" s="15">
-        <v>7102720</v>
+        <v>7864404</v>
       </c>
       <c r="AN65" s="15">
-        <v>7864404</v>
+        <v>5330781</v>
       </c>
       <c r="AO65" s="15">
-        <v>5330781</v>
+        <v>11178442</v>
       </c>
       <c r="AP65" s="15">
-        <v>11178442</v>
+        <v>7649888</v>
       </c>
       <c r="AQ65" s="15">
-        <v>7649888</v>
+        <v>7863765</v>
       </c>
       <c r="AR65" s="15">
-        <v>7863765</v>
+        <v>7535289</v>
       </c>
       <c r="AS65" s="15">
-        <v>7535289</v>
+        <v>7059348</v>
       </c>
       <c r="AT65" s="15">
-        <v>7059348</v>
+        <v>7313621</v>
       </c>
       <c r="AU65" s="15">
-        <v>7313621</v>
+        <v>10227766</v>
       </c>
       <c r="AV65" s="15">
-        <v>10227766</v>
+        <v>11327287</v>
       </c>
       <c r="AW65" s="15">
-        <v>11327287</v>
+        <v>8881150</v>
       </c>
       <c r="AX65" s="15">
-        <v>8881150</v>
+        <v>8176113</v>
       </c>
       <c r="AY65" s="15">
-        <v>8176113</v>
+        <v>5767418</v>
       </c>
       <c r="AZ65" s="15">
-        <v>5767418</v>
+        <v>9430110</v>
       </c>
       <c r="BA65" s="15">
-        <v>9430110</v>
+        <v>8887519</v>
       </c>
       <c r="BB65" s="15">
-        <v>8887519</v>
+        <v>21508375</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>82</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>59</v>
       </c>
@@ -8736,8 +8736,8 @@
       <c r="V67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="11" t="s">
-        <v>58</v>
+      <c r="W67" s="11">
+        <v>0</v>
       </c>
       <c r="X67" s="11">
         <v>0</v>
@@ -8763,8 +8763,8 @@
       <c r="AE67" s="11">
         <v>0</v>
       </c>
-      <c r="AF67" s="11">
-        <v>0</v>
+      <c r="AF67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG67" s="11" t="s">
         <v>58</v>
@@ -8833,7 +8833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>60</v>
       </c>
@@ -8892,14 +8892,14 @@
       <c r="U68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V68" s="13" t="s">
-        <v>58</v>
+      <c r="V68" s="13">
+        <v>11253090</v>
       </c>
       <c r="W68" s="13">
-        <v>11253090</v>
+        <v>3834785</v>
       </c>
       <c r="X68" s="13">
-        <v>3834785</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="13">
         <v>0</v>
@@ -8911,40 +8911,40 @@
         <v>0</v>
       </c>
       <c r="AB68" s="13">
-        <v>0</v>
+        <v>6228129</v>
       </c>
       <c r="AC68" s="13">
-        <v>6228129</v>
+        <v>2637</v>
       </c>
       <c r="AD68" s="13">
-        <v>2637</v>
+        <v>3554546</v>
       </c>
       <c r="AE68" s="13">
-        <v>3554546</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="13">
-        <v>0</v>
+        <v>7511665</v>
       </c>
       <c r="AG68" s="13">
-        <v>7511665</v>
+        <v>3741425</v>
       </c>
       <c r="AH68" s="13">
-        <v>3741425</v>
+        <v>3732099</v>
       </c>
       <c r="AI68" s="13">
-        <v>3732099</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="13">
         <v>0</v>
       </c>
       <c r="AK68" s="13">
-        <v>0</v>
+        <v>5530953</v>
       </c>
       <c r="AL68" s="13">
-        <v>5530953</v>
+        <v>3080464</v>
       </c>
       <c r="AM68" s="13">
-        <v>3080464</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="13">
         <v>0</v>
@@ -8956,13 +8956,13 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="13">
-        <v>0</v>
+        <v>7950809</v>
       </c>
       <c r="AR68" s="13">
-        <v>7950809</v>
+        <v>4159803</v>
       </c>
       <c r="AS68" s="13">
-        <v>4159803</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="13">
         <v>0</v>
@@ -8983,16 +8983,16 @@
         <v>0</v>
       </c>
       <c r="AZ68" s="13">
-        <v>0</v>
+        <v>4247964</v>
       </c>
       <c r="BA68" s="13">
-        <v>4247964</v>
+        <v>4261085</v>
       </c>
       <c r="BB68" s="13">
-        <v>4261085</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>76</v>
       </c>
@@ -9050,13 +9050,13 @@
         <v>0</v>
       </c>
       <c r="V69" s="15">
-        <v>0</v>
+        <v>11253090</v>
       </c>
       <c r="W69" s="15">
-        <v>11253090</v>
+        <v>3834785</v>
       </c>
       <c r="X69" s="15">
-        <v>3834785</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="15">
         <v>0</v>
@@ -9068,40 +9068,40 @@
         <v>0</v>
       </c>
       <c r="AB69" s="15">
-        <v>0</v>
+        <v>6228129</v>
       </c>
       <c r="AC69" s="15">
-        <v>6228129</v>
+        <v>2637</v>
       </c>
       <c r="AD69" s="15">
-        <v>2637</v>
+        <v>3554546</v>
       </c>
       <c r="AE69" s="15">
-        <v>3554546</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="15">
-        <v>0</v>
+        <v>7511665</v>
       </c>
       <c r="AG69" s="15">
-        <v>7511665</v>
+        <v>3741425</v>
       </c>
       <c r="AH69" s="15">
-        <v>3741425</v>
+        <v>3732099</v>
       </c>
       <c r="AI69" s="15">
-        <v>3732099</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="15">
         <v>0</v>
       </c>
       <c r="AK69" s="15">
-        <v>0</v>
+        <v>5530953</v>
       </c>
       <c r="AL69" s="15">
-        <v>5530953</v>
+        <v>3080464</v>
       </c>
       <c r="AM69" s="15">
-        <v>3080464</v>
+        <v>0</v>
       </c>
       <c r="AN69" s="15">
         <v>0</v>
@@ -9113,13 +9113,13 @@
         <v>0</v>
       </c>
       <c r="AQ69" s="15">
-        <v>0</v>
+        <v>7950809</v>
       </c>
       <c r="AR69" s="15">
-        <v>7950809</v>
+        <v>4159803</v>
       </c>
       <c r="AS69" s="15">
-        <v>4159803</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="15">
         <v>0</v>
@@ -9140,16 +9140,16 @@
         <v>0</v>
       </c>
       <c r="AZ69" s="15">
-        <v>0</v>
+        <v>4247964</v>
       </c>
       <c r="BA69" s="15">
-        <v>4247964</v>
+        <v>4261085</v>
       </c>
       <c r="BB69" s="15">
-        <v>4261085</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>83</v>
       </c>
@@ -9206,7 +9206,7 @@
       <c r="BA70" s="17"/>
       <c r="BB70" s="17"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>70</v>
       </c>
@@ -9259,8 +9259,8 @@
       <c r="S71" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T71" s="15" t="s">
-        <v>58</v>
+      <c r="T71" s="15">
+        <v>0</v>
       </c>
       <c r="U71" s="15">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>84</v>
       </c>
@@ -9422,7 +9422,7 @@
       <c r="BA72" s="17"/>
       <c r="BB72" s="17"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>78</v>
       </c>
@@ -9475,8 +9475,8 @@
       <c r="S73" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T73" s="15" t="s">
-        <v>58</v>
+      <c r="T73" s="15">
+        <v>0</v>
       </c>
       <c r="U73" s="15">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>85</v>
       </c>
@@ -9638,7 +9638,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>86</v>
       </c>
@@ -9691,8 +9691,8 @@
       <c r="S75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T75" s="11" t="s">
-        <v>58</v>
+      <c r="T75" s="11">
+        <v>0</v>
       </c>
       <c r="U75" s="11">
         <v>0</v>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
         <v>71</v>
       </c>
@@ -9849,112 +9849,112 @@
         <v>0</v>
       </c>
       <c r="T76" s="19">
-        <v>0</v>
+        <v>1958217</v>
       </c>
       <c r="U76" s="19">
-        <v>1958217</v>
+        <v>4467736</v>
       </c>
       <c r="V76" s="19">
-        <v>4467736</v>
+        <v>12644785</v>
       </c>
       <c r="W76" s="19">
-        <v>12644785</v>
+        <v>6239115</v>
       </c>
       <c r="X76" s="19">
-        <v>6239115</v>
+        <v>4787050</v>
       </c>
       <c r="Y76" s="19">
-        <v>4787050</v>
+        <v>7537315</v>
       </c>
       <c r="Z76" s="19">
-        <v>7537315</v>
+        <v>4526711</v>
       </c>
       <c r="AA76" s="19">
-        <v>4526711</v>
+        <v>7266242</v>
       </c>
       <c r="AB76" s="19">
-        <v>7266242</v>
+        <v>13796432</v>
       </c>
       <c r="AC76" s="19">
-        <v>13796432</v>
+        <v>3562511</v>
       </c>
       <c r="AD76" s="19">
-        <v>3562511</v>
+        <v>6601702</v>
       </c>
       <c r="AE76" s="19">
-        <v>6601702</v>
+        <v>9146398</v>
       </c>
       <c r="AF76" s="19">
-        <v>9146398</v>
+        <v>11029339</v>
       </c>
       <c r="AG76" s="19">
-        <v>11029339</v>
+        <v>9769512</v>
       </c>
       <c r="AH76" s="19">
-        <v>9769512</v>
+        <v>7348435</v>
       </c>
       <c r="AI76" s="19">
-        <v>7348435</v>
+        <v>5375996</v>
       </c>
       <c r="AJ76" s="19">
-        <v>5375996</v>
+        <v>4779014</v>
       </c>
       <c r="AK76" s="19">
-        <v>4779014</v>
+        <v>12183248</v>
       </c>
       <c r="AL76" s="19">
-        <v>12183248</v>
+        <v>10183184</v>
       </c>
       <c r="AM76" s="19">
-        <v>10183184</v>
+        <v>7864404</v>
       </c>
       <c r="AN76" s="19">
-        <v>7864404</v>
+        <v>5330781</v>
       </c>
       <c r="AO76" s="19">
-        <v>5330781</v>
+        <v>11178442</v>
       </c>
       <c r="AP76" s="19">
-        <v>11178442</v>
+        <v>7649888</v>
       </c>
       <c r="AQ76" s="19">
-        <v>7649888</v>
+        <v>15814574</v>
       </c>
       <c r="AR76" s="19">
-        <v>15814574</v>
+        <v>11695092</v>
       </c>
       <c r="AS76" s="19">
-        <v>11695092</v>
+        <v>7059348</v>
       </c>
       <c r="AT76" s="19">
-        <v>7059348</v>
+        <v>7313621</v>
       </c>
       <c r="AU76" s="19">
-        <v>7313621</v>
+        <v>10227766</v>
       </c>
       <c r="AV76" s="19">
-        <v>10227766</v>
+        <v>11327287</v>
       </c>
       <c r="AW76" s="19">
-        <v>11327287</v>
+        <v>8881150</v>
       </c>
       <c r="AX76" s="19">
-        <v>8881150</v>
+        <v>8176113</v>
       </c>
       <c r="AY76" s="19">
-        <v>8176113</v>
+        <v>5767418</v>
       </c>
       <c r="AZ76" s="19">
-        <v>5767418</v>
+        <v>13678074</v>
       </c>
       <c r="BA76" s="19">
-        <v>13678074</v>
+        <v>13148604</v>
       </c>
       <c r="BB76" s="19">
-        <v>13148604</v>
+        <v>21508375</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10009,7 +10009,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10064,7 +10064,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10119,7 +10119,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7" t="s">
         <v>87</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10331,7 +10331,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>88</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="BA82" s="9"/>
       <c r="BB82" s="9"/>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>56</v>
       </c>
@@ -10447,33 +10447,33 @@
       <c r="U83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V83" s="11" t="s">
-        <v>58</v>
+      <c r="V83" s="11">
+        <v>860045</v>
       </c>
       <c r="W83" s="11">
-        <v>860045</v>
-      </c>
-      <c r="X83" s="11">
         <v>19778347</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z83" s="11">
+      <c r="X83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y83" s="11">
         <v>30054054</v>
       </c>
+      <c r="Z83" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB83" s="11" t="s">
-        <v>58</v>
+      <c r="AB83" s="11">
+        <v>3348619</v>
       </c>
       <c r="AC83" s="11">
-        <v>3348619</v>
-      </c>
-      <c r="AD83" s="11">
         <v>1955556</v>
       </c>
+      <c r="AD83" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE83" s="11" t="s">
         <v>58</v>
       </c>
@@ -10492,45 +10492,45 @@
       <c r="AJ83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL83" s="11">
+      <c r="AK83" s="11">
         <v>500000</v>
       </c>
-      <c r="AM83" s="11" t="s">
-        <v>58</v>
+      <c r="AL83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM83" s="11">
+        <v>11211440</v>
       </c>
       <c r="AN83" s="11">
-        <v>11211440</v>
+        <v>12798666</v>
       </c>
       <c r="AO83" s="11">
-        <v>12798666</v>
+        <v>10069046</v>
       </c>
       <c r="AP83" s="11">
-        <v>10069046</v>
+        <v>29569364</v>
       </c>
       <c r="AQ83" s="11">
-        <v>29569364</v>
+        <v>15854565</v>
       </c>
       <c r="AR83" s="11">
-        <v>15854565</v>
+        <v>7747350</v>
       </c>
       <c r="AS83" s="11">
-        <v>7747350</v>
+        <v>31991453</v>
       </c>
       <c r="AT83" s="11">
-        <v>31991453</v>
+        <v>300000</v>
       </c>
       <c r="AU83" s="11">
-        <v>300000</v>
+        <v>7039616</v>
       </c>
       <c r="AV83" s="11">
-        <v>7039616</v>
-      </c>
-      <c r="AW83" s="11">
         <v>7039829</v>
       </c>
+      <c r="AW83" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX83" s="11" t="s">
         <v>58</v>
       </c>
@@ -10543,11 +10543,11 @@
       <c r="BA83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB83" s="11" t="s">
-        <v>58</v>
+      <c r="BB83" s="11">
+        <v>20550049</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>60</v>
       </c>
@@ -10600,113 +10600,113 @@
       <c r="S84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T84" s="13" t="s">
-        <v>58</v>
+      <c r="T84" s="13">
+        <v>45753368</v>
       </c>
       <c r="U84" s="13">
-        <v>45753368</v>
+        <v>51058258</v>
       </c>
       <c r="V84" s="13">
-        <v>51058258</v>
+        <v>51344734</v>
       </c>
       <c r="W84" s="13">
-        <v>51344734</v>
+        <v>67259381</v>
       </c>
       <c r="X84" s="13">
-        <v>67259381</v>
+        <v>88970741</v>
       </c>
       <c r="Y84" s="13">
-        <v>88970741</v>
+        <v>79304645</v>
       </c>
       <c r="Z84" s="13">
-        <v>79304645</v>
+        <v>101550879</v>
       </c>
       <c r="AA84" s="13">
-        <v>101550879</v>
+        <v>106185167</v>
       </c>
       <c r="AB84" s="13">
-        <v>106185167</v>
+        <v>99736528</v>
       </c>
       <c r="AC84" s="13">
-        <v>99736528</v>
+        <v>96611877</v>
       </c>
       <c r="AD84" s="13">
-        <v>96611877</v>
+        <v>103449101</v>
       </c>
       <c r="AE84" s="13">
-        <v>103449101</v>
+        <v>99274051</v>
       </c>
       <c r="AF84" s="13">
-        <v>99274051</v>
+        <v>111378545</v>
       </c>
       <c r="AG84" s="13">
-        <v>111378545</v>
+        <v>119451333</v>
       </c>
       <c r="AH84" s="13">
-        <v>119451333</v>
+        <v>118333725</v>
       </c>
       <c r="AI84" s="13">
-        <v>118333725</v>
+        <v>131720380</v>
       </c>
       <c r="AJ84" s="13">
-        <v>131720380</v>
+        <v>146035066</v>
       </c>
       <c r="AK84" s="13">
-        <v>146035066</v>
+        <v>138929871</v>
       </c>
       <c r="AL84" s="13">
-        <v>138929871</v>
+        <v>130731275</v>
       </c>
       <c r="AM84" s="13">
-        <v>130731275</v>
+        <v>133917810</v>
       </c>
       <c r="AN84" s="13">
-        <v>133917810</v>
+        <v>129959128</v>
       </c>
       <c r="AO84" s="13">
-        <v>129959128</v>
+        <v>129410102</v>
       </c>
       <c r="AP84" s="13">
-        <v>129410102</v>
+        <v>124606371</v>
       </c>
       <c r="AQ84" s="13">
-        <v>124606371</v>
+        <v>131482361</v>
       </c>
       <c r="AR84" s="13">
-        <v>131482361</v>
+        <v>139834362</v>
       </c>
       <c r="AS84" s="13">
-        <v>139834362</v>
+        <v>149249859</v>
       </c>
       <c r="AT84" s="13">
-        <v>149249859</v>
+        <v>144063042</v>
       </c>
       <c r="AU84" s="13">
-        <v>144063042</v>
+        <v>140585809</v>
       </c>
       <c r="AV84" s="13">
-        <v>140585809</v>
+        <v>133329222</v>
       </c>
       <c r="AW84" s="13">
-        <v>133329222</v>
+        <v>121481427</v>
       </c>
       <c r="AX84" s="13">
-        <v>121481427</v>
+        <v>129991192</v>
       </c>
       <c r="AY84" s="13">
-        <v>129991192</v>
+        <v>133772887</v>
       </c>
       <c r="AZ84" s="13">
-        <v>133772887</v>
+        <v>134259966</v>
       </c>
       <c r="BA84" s="13">
-        <v>134259966</v>
+        <v>151816187</v>
       </c>
       <c r="BB84" s="13">
-        <v>151816187</v>
+        <v>168334075</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>62</v>
       </c>
@@ -10759,113 +10759,113 @@
       <c r="S85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T85" s="11" t="s">
-        <v>58</v>
+      <c r="T85" s="11">
+        <v>50520927</v>
       </c>
       <c r="U85" s="11">
-        <v>50520927</v>
+        <v>53111066</v>
       </c>
       <c r="V85" s="11">
-        <v>53111066</v>
+        <v>45031129</v>
       </c>
       <c r="W85" s="11">
-        <v>45031129</v>
+        <v>77030079</v>
       </c>
       <c r="X85" s="11">
-        <v>77030079</v>
+        <v>82960940</v>
       </c>
       <c r="Y85" s="11">
-        <v>82960940</v>
+        <v>81991476</v>
       </c>
       <c r="Z85" s="11">
-        <v>81991476</v>
+        <v>103554990</v>
       </c>
       <c r="AA85" s="11">
-        <v>103554990</v>
+        <v>110840102</v>
       </c>
       <c r="AB85" s="11">
-        <v>110840102</v>
+        <v>102833192</v>
       </c>
       <c r="AC85" s="11">
-        <v>102833192</v>
+        <v>107420636</v>
       </c>
       <c r="AD85" s="11">
-        <v>107420636</v>
+        <v>112000649</v>
       </c>
       <c r="AE85" s="11">
-        <v>112000649</v>
+        <v>112740610</v>
       </c>
       <c r="AF85" s="11">
-        <v>112740610</v>
+        <v>115990654</v>
       </c>
       <c r="AG85" s="11">
-        <v>115990654</v>
+        <v>126214194</v>
       </c>
       <c r="AH85" s="11">
-        <v>126214194</v>
+        <v>119119085</v>
       </c>
       <c r="AI85" s="11">
-        <v>119119085</v>
+        <v>139029526</v>
       </c>
       <c r="AJ85" s="11">
-        <v>139029526</v>
+        <v>145932024</v>
       </c>
       <c r="AK85" s="11">
-        <v>145932024</v>
+        <v>155594709</v>
       </c>
       <c r="AL85" s="11">
-        <v>155594709</v>
+        <v>139045211</v>
       </c>
       <c r="AM85" s="11">
-        <v>139045211</v>
+        <v>143489059</v>
       </c>
       <c r="AN85" s="11">
-        <v>143489059</v>
+        <v>145969571</v>
       </c>
       <c r="AO85" s="11">
-        <v>145969571</v>
+        <v>139274523</v>
       </c>
       <c r="AP85" s="11">
-        <v>139274523</v>
+        <v>142874710</v>
       </c>
       <c r="AQ85" s="11">
-        <v>142874710</v>
+        <v>146763239</v>
       </c>
       <c r="AR85" s="11">
-        <v>146763239</v>
+        <v>150414182</v>
       </c>
       <c r="AS85" s="11">
-        <v>150414182</v>
+        <v>155268467</v>
       </c>
       <c r="AT85" s="11">
-        <v>155268467</v>
+        <v>160355076</v>
       </c>
       <c r="AU85" s="11">
-        <v>160355076</v>
+        <v>160083015</v>
       </c>
       <c r="AV85" s="11">
-        <v>160083015</v>
+        <v>149833029</v>
       </c>
       <c r="AW85" s="11">
-        <v>149833029</v>
+        <v>146675751</v>
       </c>
       <c r="AX85" s="11">
-        <v>146675751</v>
+        <v>149335412</v>
       </c>
       <c r="AY85" s="11">
-        <v>149335412</v>
+        <v>150651566</v>
       </c>
       <c r="AZ85" s="11">
-        <v>150651566</v>
+        <v>149360140</v>
       </c>
       <c r="BA85" s="11">
-        <v>149360140</v>
+        <v>158068010</v>
       </c>
       <c r="BB85" s="11">
-        <v>158068010</v>
+        <v>182059217</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>63</v>
       </c>
@@ -10942,89 +10942,89 @@
       <c r="AA86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC86" s="13">
+      <c r="AB86" s="13">
         <v>45734807</v>
       </c>
-      <c r="AD86" s="13" t="s">
-        <v>58</v>
+      <c r="AC86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD86" s="13">
+        <v>48843750</v>
       </c>
       <c r="AE86" s="13">
-        <v>48843750</v>
-      </c>
-      <c r="AF86" s="13">
         <v>50897924</v>
       </c>
+      <c r="AF86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH86" s="13" t="s">
-        <v>58</v>
+      <c r="AH86" s="13">
+        <v>59701211</v>
       </c>
       <c r="AI86" s="13">
-        <v>59701211</v>
+        <v>51705882</v>
       </c>
       <c r="AJ86" s="13">
-        <v>51705882</v>
+        <v>66635514</v>
       </c>
       <c r="AK86" s="13">
-        <v>66635514</v>
+        <v>80226190</v>
       </c>
       <c r="AL86" s="13">
-        <v>80226190</v>
+        <v>72599109</v>
       </c>
       <c r="AM86" s="13">
-        <v>72599109</v>
+        <v>63299160</v>
       </c>
       <c r="AN86" s="13">
-        <v>63299160</v>
+        <v>68516035</v>
       </c>
       <c r="AO86" s="13">
-        <v>68516035</v>
+        <v>89041322</v>
       </c>
       <c r="AP86" s="13">
-        <v>89041322</v>
+        <v>31404891</v>
       </c>
       <c r="AQ86" s="13">
-        <v>31404891</v>
+        <v>31275000</v>
       </c>
       <c r="AR86" s="13">
-        <v>31275000</v>
+        <v>37137097</v>
       </c>
       <c r="AS86" s="13">
-        <v>37137097</v>
+        <v>82271605</v>
       </c>
       <c r="AT86" s="13">
-        <v>82271605</v>
+        <v>67827381</v>
       </c>
       <c r="AU86" s="13">
-        <v>67827381</v>
+        <v>143358974</v>
       </c>
       <c r="AV86" s="13">
-        <v>143358974</v>
+        <v>104741935</v>
       </c>
       <c r="AW86" s="13">
-        <v>104741935</v>
+        <v>88817935</v>
       </c>
       <c r="AX86" s="13">
-        <v>88817935</v>
+        <v>68484463</v>
       </c>
       <c r="AY86" s="13">
-        <v>68484463</v>
+        <v>113484496</v>
       </c>
       <c r="AZ86" s="13">
-        <v>113484496</v>
+        <v>78247596</v>
       </c>
       <c r="BA86" s="13">
-        <v>78247596</v>
+        <v>92692671</v>
       </c>
       <c r="BB86" s="13">
-        <v>92692671</v>
+        <v>82765172</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>64</v>
       </c>
@@ -11083,12 +11083,12 @@
       <c r="U87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W87" s="11">
+      <c r="V87" s="11">
         <v>16200068</v>
       </c>
+      <c r="W87" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
@@ -11146,44 +11146,44 @@
       <c r="AP87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ87" s="11" t="s">
-        <v>58</v>
+      <c r="AQ87" s="11">
+        <v>36025161</v>
       </c>
       <c r="AR87" s="11">
-        <v>36025161</v>
+        <v>36280347</v>
       </c>
       <c r="AS87" s="11">
-        <v>36280347</v>
+        <v>51404877</v>
       </c>
       <c r="AT87" s="11">
-        <v>51404877</v>
+        <v>57960000</v>
       </c>
       <c r="AU87" s="11">
-        <v>57960000</v>
+        <v>57946970</v>
       </c>
       <c r="AV87" s="11">
-        <v>57946970</v>
-      </c>
-      <c r="AW87" s="11">
         <v>57973834</v>
       </c>
+      <c r="AW87" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ87" s="11">
+      <c r="AY87" s="11">
         <v>57954685</v>
       </c>
+      <c r="AZ87" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BA87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB87" s="11" t="s">
-        <v>58</v>
+      <c r="BB87" s="11">
+        <v>82292803</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>65</v>
       </c>
@@ -11269,42 +11269,42 @@
       <c r="AD88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF88" s="13">
+      <c r="AE88" s="13">
         <v>49958333</v>
       </c>
+      <c r="AF88" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG88" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AH88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI88" s="13" t="s">
-        <v>58</v>
+      <c r="AI88" s="13">
+        <v>34100984</v>
       </c>
       <c r="AJ88" s="13">
-        <v>34100984</v>
+        <v>34108301</v>
       </c>
       <c r="AK88" s="13">
-        <v>34108301</v>
+        <v>34094850</v>
       </c>
       <c r="AL88" s="13">
-        <v>34094850</v>
+        <v>34104020</v>
       </c>
       <c r="AM88" s="13">
-        <v>34104020</v>
+        <v>34100013</v>
       </c>
       <c r="AN88" s="13">
-        <v>34100013</v>
+        <v>34087719</v>
       </c>
       <c r="AO88" s="13">
-        <v>34087719</v>
-      </c>
-      <c r="AP88" s="13">
         <v>34115385</v>
       </c>
+      <c r="AP88" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ88" s="13" t="s">
         <v>58</v>
       </c>
@@ -11323,26 +11323,26 @@
       <c r="AV88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX88" s="13">
+      <c r="AW88" s="13">
         <v>44701175</v>
       </c>
-      <c r="AY88" s="13" t="s">
-        <v>58</v>
+      <c r="AX88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY88" s="13">
+        <v>45266346</v>
       </c>
       <c r="AZ88" s="13">
-        <v>45266346</v>
-      </c>
-      <c r="BA88" s="13">
         <v>45294859</v>
       </c>
-      <c r="BB88" s="13" t="s">
-        <v>58</v>
+      <c r="BA88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB88" s="13">
+        <v>64095696</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>90</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>60</v>
       </c>
@@ -11458,15 +11458,15 @@
       <c r="U90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="V90" s="11" t="s">
-        <v>58</v>
+      <c r="V90" s="11">
+        <v>125069075</v>
       </c>
       <c r="W90" s="11">
-        <v>125069075</v>
-      </c>
-      <c r="X90" s="11">
         <v>91250089</v>
       </c>
+      <c r="X90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Y90" s="11" t="s">
         <v>58</v>
       </c>
@@ -11476,42 +11476,42 @@
       <c r="AA90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB90" s="11" t="s">
-        <v>58</v>
+      <c r="AB90" s="11">
+        <v>103907790</v>
       </c>
       <c r="AC90" s="11">
-        <v>103907790</v>
+        <v>105480000</v>
       </c>
       <c r="AD90" s="11">
-        <v>105480000</v>
-      </c>
-      <c r="AE90" s="11">
         <v>119296080</v>
       </c>
-      <c r="AF90" s="11" t="s">
-        <v>58</v>
+      <c r="AE90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF90" s="11">
+        <v>125244514</v>
       </c>
       <c r="AG90" s="11">
-        <v>125244514</v>
+        <v>124718324</v>
       </c>
       <c r="AH90" s="11">
-        <v>124718324</v>
-      </c>
-      <c r="AI90" s="11">
         <v>124353559</v>
       </c>
+      <c r="AI90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK90" s="11" t="s">
-        <v>58</v>
+      <c r="AK90" s="11">
+        <v>143062854</v>
       </c>
       <c r="AL90" s="11">
-        <v>143062854</v>
-      </c>
-      <c r="AM90" s="11">
         <v>144541291</v>
       </c>
+      <c r="AM90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN90" s="11" t="s">
         <v>58</v>
       </c>
@@ -11521,15 +11521,15 @@
       <c r="AP90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ90" s="11" t="s">
-        <v>58</v>
+      <c r="AQ90" s="11">
+        <v>132714767</v>
       </c>
       <c r="AR90" s="11">
-        <v>132714767</v>
-      </c>
-      <c r="AS90" s="11">
         <v>138470857</v>
       </c>
+      <c r="AS90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT90" s="11" t="s">
         <v>58</v>
       </c>
@@ -11548,14 +11548,14 @@
       <c r="AY90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ90" s="11" t="s">
-        <v>58</v>
+      <c r="AZ90" s="11">
+        <v>141707442</v>
       </c>
       <c r="BA90" s="11">
-        <v>141707442</v>
-      </c>
-      <c r="BB90" s="11">
         <v>142297045</v>
+      </c>
+      <c r="BB90" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/folad/fejahan/product/monthly_seprated.xlsx
+++ b/database/industries/folad/fejahan/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="91">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3302,110 +3302,110 @@
       <c r="S11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="13" t="s">
-        <v>58</v>
+      <c r="T11" s="13" t="n">
+        <v>15506</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>15506</v>
+        <v>2230</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>2230</v>
+        <v>365</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>365</v>
+        <v>18820</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>18820</v>
+        <v>6824</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>6824</v>
+        <v>7308</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>7308</v>
+        <v>7869</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>7869</v>
+        <v>9041</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>9041</v>
+        <v>5260</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>5260</v>
-      </c>
-      <c r="AD11" s="13" t="n">
         <v>6843</v>
       </c>
+      <c r="AD11" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="13" t="s">
-        <v>58</v>
+      <c r="AF11" s="13" t="n">
+        <v>2437</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>2437</v>
-      </c>
-      <c r="AH11" s="13" t="n">
         <v>1577</v>
       </c>
-      <c r="AI11" s="13" t="s">
-        <v>58</v>
+      <c r="AH11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" s="13" t="n">
+        <v>46957</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>46957</v>
+        <v>12803</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>12803</v>
+        <v>18793</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>18793</v>
+        <v>19482</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>19482</v>
+        <v>28431</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>28431</v>
+        <v>23352</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>23352</v>
+        <v>23252</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>23252</v>
+        <v>22022</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>22022</v>
+        <v>22635</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>22635</v>
+        <v>15846</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>15846</v>
+        <v>13840</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>13840</v>
+        <v>13706</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>13706</v>
+        <v>22522</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>22522</v>
+        <v>20662</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>20662</v>
+        <v>19947</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>19947</v>
+        <v>18443</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>18443</v>
+        <v>16926</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>16926</v>
+        <v>14582</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>14582</v>
+        <v>17199</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>17199</v>
+        <v>18949</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,116 +3455,116 @@
       <c r="Q12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>58</v>
+      <c r="R12" s="16" t="n">
+        <v>84615</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>84615</v>
+        <v>85621</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>85621</v>
+        <v>87975</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>87975</v>
+        <v>87900</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>87900</v>
+        <v>84961</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>84961</v>
+        <v>83615</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>83615</v>
+        <v>38517</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>38517</v>
+        <v>82555</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>82555</v>
+        <v>77482</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>77482</v>
+        <v>82250</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>82250</v>
+        <v>81095</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>81095</v>
+        <v>80947</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>80947</v>
+        <v>85221</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>85221</v>
+        <v>83307</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>83307</v>
+        <v>86809</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>86809</v>
+        <v>83191</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>83191</v>
+        <v>84438</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>84438</v>
+        <v>86164</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>86164</v>
+        <v>80332</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>80332</v>
+        <v>80713</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>80713</v>
+        <v>80300</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>80300</v>
+        <v>53885</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>53885</v>
+        <v>29389</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>29389</v>
+        <v>74303</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>74303</v>
+        <v>82354</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>82354</v>
+        <v>82632</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>82632</v>
+        <v>86486</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>86486</v>
+        <v>82979</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>82979</v>
+        <v>85310</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>85310</v>
+        <v>82722</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>82722</v>
+        <v>81447</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>81447</v>
+        <v>86523</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>86523</v>
+        <v>50803</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>50803</v>
+        <v>49372</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>49372</v>
+        <v>47928</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>47928</v>
+        <v>79545</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>79545</v>
+        <v>89725</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,116 +3614,116 @@
       <c r="Q13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>58</v>
+      <c r="R13" s="13" t="n">
+        <v>47484</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>47484</v>
+        <v>72491</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>72491</v>
+        <v>73407</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>73407</v>
+        <v>73712</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>73712</v>
+        <v>75881</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>75881</v>
+        <v>78146</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>78146</v>
+        <v>76776</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>76776</v>
+        <v>70133</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>70133</v>
+        <v>68958</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>68958</v>
+        <v>55399</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>55399</v>
+        <v>80522</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>80522</v>
+        <v>77868</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>77868</v>
+        <v>80829</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>80829</v>
+        <v>93247</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>93247</v>
+        <v>88113</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>88113</v>
+        <v>37949</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>37949</v>
+        <v>25456</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>25456</v>
+        <v>58288</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>58288</v>
+        <v>79559</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>79559</v>
+        <v>85544</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>85544</v>
+        <v>81082</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>81082</v>
+        <v>85588</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>85588</v>
+        <v>77102</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>77102</v>
+        <v>85472</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>85472</v>
+        <v>88045</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>88045</v>
+        <v>88227</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>88227</v>
+        <v>49199</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>49199</v>
+        <v>55778</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>55778</v>
+        <v>58075</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>58075</v>
+        <v>85562</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>85562</v>
+        <v>84346</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>84346</v>
+        <v>70319</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>70319</v>
+        <v>69304</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>69304</v>
+        <v>64521</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>64521</v>
+        <v>64560</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>64560</v>
+        <v>65175</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>65175</v>
+        <v>78333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,113 +3776,113 @@
       <c r="R14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S14" s="16" t="s">
-        <v>58</v>
+      <c r="S14" s="16" t="n">
+        <v>1392</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>1392</v>
+        <v>1031</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>1031</v>
+        <v>1329</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>1329</v>
+        <v>1162</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>1162</v>
+        <v>956</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>956</v>
+        <v>217</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>217</v>
+        <v>603</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>603</v>
+        <v>1354</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>1354</v>
+        <v>565</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>565</v>
+        <v>914</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>914</v>
+        <v>2524</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>2524</v>
+        <v>463</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>463</v>
+        <v>931</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>931</v>
+        <v>1618</v>
       </c>
       <c r="AG14" s="16" t="n">
+        <v>834</v>
+      </c>
+      <c r="AH14" s="16" t="n">
+        <v>382</v>
+      </c>
+      <c r="AI14" s="16" t="n">
+        <v>1503</v>
+      </c>
+      <c r="AJ14" s="16" t="n">
+        <v>1217</v>
+      </c>
+      <c r="AK14" s="16" t="n">
+        <v>1513</v>
+      </c>
+      <c r="AL14" s="16" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AM14" s="16" t="n">
+        <v>1627</v>
+      </c>
+      <c r="AN14" s="16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AP14" s="16" t="n">
+        <v>2035</v>
+      </c>
+      <c r="AQ14" s="16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AR14" s="16" t="n">
+        <v>1234</v>
+      </c>
+      <c r="AS14" s="16" t="n">
+        <v>3149</v>
+      </c>
+      <c r="AT14" s="16" t="n">
+        <v>2786</v>
+      </c>
+      <c r="AU14" s="16" t="n">
+        <v>4405</v>
+      </c>
+      <c r="AV14" s="16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AW14" s="16" t="n">
+        <v>1903</v>
+      </c>
+      <c r="AX14" s="16" t="n">
+        <v>3448</v>
+      </c>
+      <c r="AY14" s="16" t="n">
         <v>1618</v>
       </c>
-      <c r="AH14" s="16" t="n">
-        <v>834</v>
-      </c>
-      <c r="AI14" s="16" t="n">
-        <v>382</v>
-      </c>
-      <c r="AJ14" s="16" t="n">
-        <v>1503</v>
-      </c>
-      <c r="AK14" s="16" t="n">
-        <v>1217</v>
-      </c>
-      <c r="AL14" s="16" t="n">
-        <v>1513</v>
-      </c>
-      <c r="AM14" s="16" t="n">
-        <v>1920</v>
-      </c>
-      <c r="AN14" s="16" t="n">
-        <v>1627</v>
-      </c>
-      <c r="AO14" s="16" t="n">
-        <v>1440</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>2190</v>
-      </c>
-      <c r="AQ14" s="16" t="n">
-        <v>2035</v>
-      </c>
-      <c r="AR14" s="16" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AS14" s="16" t="n">
-        <v>1234</v>
-      </c>
-      <c r="AT14" s="16" t="n">
-        <v>3149</v>
-      </c>
-      <c r="AU14" s="16" t="n">
-        <v>2786</v>
-      </c>
-      <c r="AV14" s="16" t="n">
-        <v>4405</v>
-      </c>
-      <c r="AW14" s="16" t="n">
-        <v>1500</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>1903</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>3448</v>
-      </c>
       <c r="AZ14" s="16" t="n">
-        <v>1618</v>
+        <v>1476</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>1476</v>
+        <v>2044</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>2044</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,116 +3932,116 @@
       <c r="Q15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R15" s="13" t="s">
-        <v>58</v>
+      <c r="R15" s="13" t="n">
+        <v>10400</v>
       </c>
       <c r="S15" s="13" t="n">
-        <v>10400</v>
+        <v>24050</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>24050</v>
+        <v>38574</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>38574</v>
+        <v>23116</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>23116</v>
+        <v>29332</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>29332</v>
+        <v>29478</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>29478</v>
+        <v>38801</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>38801</v>
+        <v>32009</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>32009</v>
+        <v>8281</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>8281</v>
+        <v>15808</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>15808</v>
+        <v>29250</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>29250</v>
+        <v>11908</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>11908</v>
+        <v>34563</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>34563</v>
+        <v>12810</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>12810</v>
+        <v>12532</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>12532</v>
+        <v>12584</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>12584</v>
+        <v>29771</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>29771</v>
+        <v>32409</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>32409</v>
+        <v>14300</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>14300</v>
+        <v>33616</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>33616</v>
+        <v>30457</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>30457</v>
+        <v>13263</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>13263</v>
+        <v>29919</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>29919</v>
+        <v>4278</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>4278</v>
+        <v>20865</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>20865</v>
+        <v>40515</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>40515</v>
+        <v>32398</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>32398</v>
+        <v>28980</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>28980</v>
+        <v>33839</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>33839</v>
+        <v>33900</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>33900</v>
+        <v>34276</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>34276</v>
+        <v>13737</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>13737</v>
+        <v>17875</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>17875</v>
+        <v>26873</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>26873</v>
+        <v>28168</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>28168</v>
+        <v>26250</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>26250</v>
+        <v>32661</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,95 +4112,95 @@
       <c r="X16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="16" t="s">
-        <v>58</v>
+      <c r="Y16" s="16" t="n">
+        <v>181</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>51</v>
+        <v>6824</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>6824</v>
+        <v>101</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD16" s="16" t="n">
         <v>13854</v>
       </c>
+      <c r="AD16" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="16" t="s">
-        <v>58</v>
+      <c r="AF16" s="16" t="n">
+        <v>806</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>806</v>
+        <v>2580</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>2580</v>
+        <v>2290</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>2290</v>
+        <v>2628</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>2628</v>
+        <v>234</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>234</v>
+        <v>4805</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>4805</v>
+        <v>5304</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>5304</v>
+        <v>5061</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>5061</v>
+        <v>5381</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>5381</v>
+        <v>5440</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>5440</v>
+        <v>6142</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>6142</v>
+        <v>6934</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>6934</v>
+        <v>4163</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>4163</v>
+        <v>4695</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>4695</v>
+        <v>5554</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>5554</v>
+        <v>6887</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>6887</v>
+        <v>6745</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>6745</v>
+        <v>5301</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>5301</v>
+        <v>4833</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>4833</v>
+        <v>3283</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>3283</v>
+        <v>3727</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>3727</v>
+        <v>5311</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>5311</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,33 +4256,33 @@
       <c r="S17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U17" s="13" t="n">
+      <c r="T17" s="13" t="n">
         <v>6080</v>
       </c>
-      <c r="V17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" s="13" t="n">
+      <c r="U17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="13" t="n">
         <v>3500</v>
       </c>
-      <c r="X17" s="13" t="s">
-        <v>58</v>
+      <c r="W17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>890</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>890</v>
+        <v>690</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>760</v>
-      </c>
-      <c r="AB17" s="13" t="n">
         <v>240</v>
       </c>
+      <c r="AB17" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC17" s="13" t="s">
         <v>58</v>
       </c>
@@ -4295,71 +4295,71 @@
       <c r="AF17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="13" t="s">
-        <v>58</v>
+      <c r="AG17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="13" t="n">
+        <v>1230</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>1230</v>
+        <v>402</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>402</v>
+        <v>1359</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>1359</v>
+        <v>780</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>780</v>
+        <v>913</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>930</v>
+        <v>771</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>771</v>
+        <v>717</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>717</v>
+        <v>997</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>997</v>
+        <v>405</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>463</v>
+        <v>864</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>864</v>
+        <v>991</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>991</v>
+        <v>1369</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>1369</v>
+        <v>1239</v>
       </c>
       <c r="AY17" s="13" t="n">
+        <v>819</v>
+      </c>
+      <c r="AZ17" s="13" t="n">
+        <v>985</v>
+      </c>
+      <c r="BA17" s="13" t="n">
         <v>1239</v>
       </c>
-      <c r="AZ17" s="13" t="n">
-        <v>819</v>
-      </c>
-      <c r="BA17" s="13" t="n">
-        <v>985</v>
-      </c>
       <c r="BB17" s="13" t="n">
-        <v>1239</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,110 +4415,110 @@
       <c r="S18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U18" s="16" t="n">
+      <c r="T18" s="16" t="n">
         <v>9400</v>
       </c>
+      <c r="U18" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="V18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="16" t="s">
-        <v>58</v>
+      <c r="W18" s="16" t="n">
+        <v>5031</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>5031</v>
+        <v>1614</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>1614</v>
+        <v>2246</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>2246</v>
+        <v>5168</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>5168</v>
+        <v>1819</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>1819</v>
+        <v>523</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>523</v>
+        <v>2405</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>2405</v>
-      </c>
-      <c r="AE18" s="16" t="n">
         <v>491</v>
       </c>
-      <c r="AF18" s="16" t="s">
-        <v>58</v>
+      <c r="AE18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" s="16" t="n">
+        <v>2398</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>2398</v>
+        <v>3466</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>3466</v>
+        <v>1487</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>1487</v>
+        <v>3500</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>3500</v>
+        <v>2568</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>2568</v>
+        <v>3149</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>3149</v>
+        <v>2858</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>2858</v>
+        <v>2807</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>2807</v>
+        <v>2274</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>2274</v>
+        <v>6566</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>6566</v>
+        <v>4123</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>4123</v>
+        <v>4472</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>4472</v>
+        <v>3144</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>3144</v>
+        <v>3531</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>3531</v>
+        <v>2895</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>2895</v>
+        <v>4511</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>4511</v>
+        <v>3725</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>3725</v>
+        <v>2839</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>2839</v>
+        <v>3608</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>3608</v>
+        <v>1255</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>1255</v>
+        <v>1546</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>1546</v>
+        <v>2075</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>2075</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,115 +4567,115 @@
         <v>0</v>
       </c>
       <c r="R19" s="18" t="n">
-        <v>0</v>
+        <v>142499</v>
       </c>
       <c r="S19" s="18" t="n">
-        <v>142499</v>
+        <v>183554</v>
       </c>
       <c r="T19" s="18" t="n">
-        <v>183554</v>
+        <v>231973</v>
       </c>
       <c r="U19" s="18" t="n">
-        <v>231973</v>
+        <v>188287</v>
       </c>
       <c r="V19" s="18" t="n">
-        <v>188287</v>
+        <v>195201</v>
       </c>
       <c r="W19" s="18" t="n">
-        <v>195201</v>
+        <v>216046</v>
       </c>
       <c r="X19" s="18" t="n">
-        <v>216046</v>
+        <v>163639</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>163639</v>
+        <v>195725</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>195725</v>
+        <v>169923</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>169923</v>
+        <v>171946</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>171946</v>
+        <v>197665</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>197665</v>
+        <v>196349</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>196349</v>
+        <v>201567</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>201567</v>
+        <v>190295</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>190295</v>
+        <v>194713</v>
       </c>
       <c r="AG19" s="18" t="n">
-        <v>194713</v>
+        <v>142181</v>
       </c>
       <c r="AH19" s="18" t="n">
-        <v>142181</v>
+        <v>143824</v>
       </c>
       <c r="AI19" s="18" t="n">
-        <v>143824</v>
+        <v>232679</v>
       </c>
       <c r="AJ19" s="18" t="n">
-        <v>232679</v>
+        <v>191415</v>
       </c>
       <c r="AK19" s="18" t="n">
-        <v>191415</v>
+        <v>229492</v>
       </c>
       <c r="AL19" s="18" t="n">
-        <v>229492</v>
+        <v>222183</v>
       </c>
       <c r="AM19" s="18" t="n">
-        <v>222183</v>
+        <v>191575</v>
       </c>
       <c r="AN19" s="18" t="n">
-        <v>191575</v>
+        <v>169787</v>
       </c>
       <c r="AO19" s="18" t="n">
-        <v>169787</v>
+        <v>202272</v>
       </c>
       <c r="AP19" s="18" t="n">
-        <v>202272</v>
+        <v>226303</v>
       </c>
       <c r="AQ19" s="18" t="n">
-        <v>226303</v>
+        <v>248428</v>
       </c>
       <c r="AR19" s="18" t="n">
-        <v>248428</v>
+        <v>192875</v>
       </c>
       <c r="AS19" s="18" t="n">
-        <v>192875</v>
+        <v>193375</v>
       </c>
       <c r="AT19" s="18" t="n">
-        <v>193375</v>
+        <v>202628</v>
       </c>
       <c r="AU19" s="18" t="n">
-        <v>202628</v>
+        <v>241373</v>
       </c>
       <c r="AV19" s="18" t="n">
-        <v>241373</v>
+        <v>233692</v>
       </c>
       <c r="AW19" s="18" t="n">
-        <v>233692</v>
+        <v>201938</v>
       </c>
       <c r="AX19" s="18" t="n">
-        <v>201938</v>
+        <v>169553</v>
       </c>
       <c r="AY19" s="18" t="n">
-        <v>169553</v>
+        <v>164667</v>
       </c>
       <c r="AZ19" s="18" t="n">
-        <v>164667</v>
+        <v>162972</v>
       </c>
       <c r="BA19" s="18" t="n">
-        <v>162972</v>
+        <v>198838</v>
       </c>
       <c r="BB19" s="18" t="n">
-        <v>198838</v>
+        <v>231505</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,26 +4977,26 @@
       <c r="AC22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE22" s="16" t="n">
+      <c r="AD22" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AF22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG22" s="16" t="n">
-        <v>0</v>
+      <c r="AE22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ22" s="16" t="n">
-        <v>0</v>
+      <c r="AI22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="16" t="s">
         <v>58</v>
@@ -5010,14 +5010,14 @@
       <c r="AN22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="16" t="s">
-        <v>58</v>
+      <c r="AO22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP22" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="16" t="n">
         <v>0</v>
@@ -5135,46 +5135,46 @@
         <v>0</v>
       </c>
       <c r="AD23" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AF23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ23" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="18" t="n">
         <v>0</v>
@@ -5312,8 +5312,8 @@
       <c r="Q25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R25" s="18" t="s">
-        <v>58</v>
+      <c r="R25" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="S25" s="18" t="n">
         <v>0</v>
@@ -5470,115 +5470,115 @@
         <v>0</v>
       </c>
       <c r="R26" s="22" t="n">
-        <v>0</v>
+        <v>142499</v>
       </c>
       <c r="S26" s="22" t="n">
-        <v>142499</v>
+        <v>183554</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>183554</v>
+        <v>231973</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>231973</v>
+        <v>188287</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>188287</v>
+        <v>195201</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>195201</v>
+        <v>216046</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>216046</v>
+        <v>163639</v>
       </c>
       <c r="Y26" s="22" t="n">
-        <v>163639</v>
+        <v>195725</v>
       </c>
       <c r="Z26" s="22" t="n">
-        <v>195725</v>
+        <v>169923</v>
       </c>
       <c r="AA26" s="22" t="n">
-        <v>169923</v>
+        <v>171946</v>
       </c>
       <c r="AB26" s="22" t="n">
-        <v>171946</v>
+        <v>197665</v>
       </c>
       <c r="AC26" s="22" t="n">
-        <v>197665</v>
+        <v>196349</v>
       </c>
       <c r="AD26" s="22" t="n">
-        <v>196349</v>
+        <v>201568</v>
       </c>
       <c r="AE26" s="22" t="n">
-        <v>201568</v>
+        <v>190295</v>
       </c>
       <c r="AF26" s="22" t="n">
-        <v>190295</v>
+        <v>194713</v>
       </c>
       <c r="AG26" s="22" t="n">
-        <v>194713</v>
+        <v>142181</v>
       </c>
       <c r="AH26" s="22" t="n">
-        <v>142181</v>
+        <v>143824</v>
       </c>
       <c r="AI26" s="22" t="n">
-        <v>143824</v>
+        <v>232679</v>
       </c>
       <c r="AJ26" s="22" t="n">
-        <v>232679</v>
+        <v>191415</v>
       </c>
       <c r="AK26" s="22" t="n">
-        <v>191415</v>
+        <v>229492</v>
       </c>
       <c r="AL26" s="22" t="n">
-        <v>229492</v>
+        <v>222183</v>
       </c>
       <c r="AM26" s="22" t="n">
-        <v>222183</v>
+        <v>191575</v>
       </c>
       <c r="AN26" s="22" t="n">
-        <v>191575</v>
+        <v>169787</v>
       </c>
       <c r="AO26" s="22" t="n">
-        <v>169787</v>
+        <v>202272</v>
       </c>
       <c r="AP26" s="22" t="n">
-        <v>202272</v>
+        <v>226304</v>
       </c>
       <c r="AQ26" s="22" t="n">
-        <v>226304</v>
+        <v>248428</v>
       </c>
       <c r="AR26" s="22" t="n">
-        <v>248428</v>
+        <v>192875</v>
       </c>
       <c r="AS26" s="22" t="n">
-        <v>192875</v>
+        <v>193375</v>
       </c>
       <c r="AT26" s="22" t="n">
-        <v>193375</v>
+        <v>202628</v>
       </c>
       <c r="AU26" s="22" t="n">
-        <v>202628</v>
+        <v>241373</v>
       </c>
       <c r="AV26" s="22" t="n">
-        <v>241373</v>
+        <v>233692</v>
       </c>
       <c r="AW26" s="22" t="n">
-        <v>233692</v>
+        <v>201938</v>
       </c>
       <c r="AX26" s="22" t="n">
-        <v>201938</v>
+        <v>169553</v>
       </c>
       <c r="AY26" s="22" t="n">
-        <v>169553</v>
+        <v>164667</v>
       </c>
       <c r="AZ26" s="22" t="n">
-        <v>164667</v>
+        <v>162972</v>
       </c>
       <c r="BA26" s="22" t="n">
-        <v>162972</v>
+        <v>198838</v>
       </c>
       <c r="BB26" s="22" t="n">
-        <v>198838</v>
+        <v>231505</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,33 +6068,33 @@
       <c r="S33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T33" s="13" t="s">
-        <v>58</v>
+      <c r="T33" s="13" t="n">
+        <v>16734</v>
       </c>
       <c r="U33" s="13" t="n">
-        <v>16734</v>
-      </c>
-      <c r="V33" s="13" t="n">
         <v>1367</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="13" t="n">
+      <c r="V33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W33" s="13" t="n">
         <v>37</v>
       </c>
+      <c r="X33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="13" t="s">
-        <v>58</v>
+      <c r="Z33" s="13" t="n">
+        <v>5321</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>5321</v>
-      </c>
-      <c r="AB33" s="13" t="n">
         <v>45</v>
       </c>
+      <c r="AB33" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC33" s="13" t="s">
         <v>58</v>
       </c>
@@ -6113,44 +6113,44 @@
       <c r="AH33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI33" s="13" t="s">
-        <v>58</v>
+      <c r="AI33" s="13" t="n">
+        <v>1484</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>979</v>
+        <v>3298</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>3298</v>
+        <v>1709</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>1709</v>
+        <v>4635</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>4635</v>
+        <v>13855</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>13855</v>
+        <v>1698</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>1698</v>
+        <v>234</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>10</v>
+        <v>4165</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>4165</v>
+        <v>10746</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>10746</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="13" t="n">
         <v>0</v>
@@ -6165,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>0</v>
+        <v>45945</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>45945</v>
+        <v>18437</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>18437</v>
+        <v>20717</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,35 +6263,35 @@
       <c r="AE34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM34" s="16" t="n">
-        <v>0</v>
+      <c r="AF34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO34" s="16" t="s">
-        <v>58</v>
+      <c r="AO34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP34" s="16" t="n">
         <v>0</v>
@@ -6380,116 +6380,116 @@
       <c r="Q35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="13" t="s">
-        <v>58</v>
+      <c r="R35" s="13" t="n">
+        <v>28500</v>
       </c>
       <c r="S35" s="13" t="n">
-        <v>28500</v>
+        <v>62000</v>
       </c>
       <c r="T35" s="13" t="n">
-        <v>62000</v>
+        <v>12485</v>
       </c>
       <c r="U35" s="13" t="n">
-        <v>12485</v>
+        <v>6103</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>6103</v>
+        <v>46858</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>46858</v>
+        <v>50032</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>50032</v>
+        <v>28155</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>28155</v>
+        <v>34477</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>34477</v>
+        <v>46521</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>46521</v>
+        <v>13926</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>13926</v>
+        <v>14411</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>14411</v>
+        <v>55143</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>55143</v>
+        <v>22000</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>21000</v>
+        <v>21293</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>21293</v>
+        <v>21565</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>21565</v>
+        <v>14772</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>14772</v>
+        <v>22872</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>22872</v>
+        <v>25848</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>25848</v>
+        <v>30965</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>30965</v>
+        <v>15781</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>15781</v>
+        <v>66759</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>66759</v>
+        <v>34502</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>34502</v>
+        <v>33732</v>
       </c>
       <c r="AP35" s="13" t="n">
-        <v>33732</v>
+        <v>33380</v>
       </c>
       <c r="AQ35" s="13" t="n">
-        <v>33380</v>
+        <v>21216</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>21216</v>
+        <v>14403</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>14403</v>
+        <v>31908</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>31908</v>
+        <v>49863</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>49863</v>
+        <v>38955</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>38955</v>
+        <v>40419</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>40419</v>
+        <v>21694</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>21694</v>
+        <v>35070</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>35070</v>
+        <v>33681</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>33681</v>
+        <v>83164</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>83164</v>
+        <v>75642</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>75642</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,11 +6581,11 @@
       <c r="AE36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG36" s="16" t="n">
-        <v>0</v>
+      <c r="AF36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH36" s="16" t="s">
         <v>58</v>
@@ -6593,23 +6593,23 @@
       <c r="AI36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM36" s="16" t="n">
-        <v>0</v>
+      <c r="AJ36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO36" s="16" t="s">
-        <v>58</v>
+      <c r="AO36" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP36" s="16" t="n">
         <v>0</v>
@@ -6698,116 +6698,116 @@
       <c r="Q37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R37" s="13" t="s">
-        <v>58</v>
+      <c r="R37" s="13" t="n">
+        <v>12950</v>
       </c>
       <c r="S37" s="13" t="n">
-        <v>12950</v>
+        <v>24517</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>24517</v>
+        <v>15291</v>
       </c>
       <c r="U37" s="13" t="n">
-        <v>15291</v>
+        <v>25533</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>25533</v>
+        <v>7450</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>7450</v>
+        <v>43522</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>43522</v>
+        <v>16103</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>16103</v>
+        <v>32527</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>32527</v>
+        <v>28224</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>28224</v>
+        <v>20614</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>20614</v>
+        <v>13868</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>13868</v>
+        <v>32268</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>32268</v>
+        <v>9202</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>9202</v>
+        <v>27886</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>27886</v>
+        <v>8834</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>8834</v>
+        <v>17476</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>17476</v>
+        <v>17212</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>17212</v>
+        <v>20827</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>20827</v>
+        <v>25569</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>25569</v>
+        <v>23764</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>23764</v>
+        <v>21953</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>21953</v>
+        <v>18024</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>18024</v>
+        <v>22412</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>22412</v>
+        <v>21338</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>21338</v>
+        <v>18446</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>18446</v>
+        <v>23813</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>23813</v>
+        <v>31306</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>31306</v>
+        <v>35090</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>35090</v>
+        <v>30167</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>30167</v>
+        <v>24805</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>24805</v>
+        <v>19242</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>19242</v>
+        <v>18012</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>18012</v>
+        <v>30191</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>30191</v>
+        <v>23629</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>23629</v>
+        <v>32288</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>32288</v>
+        <v>35089</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>35089</v>
+        <v>14559</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6881,92 +6881,92 @@
       <c r="Y38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA38" s="16" t="n">
+      <c r="Z38" s="16" t="n">
         <v>181</v>
       </c>
-      <c r="AB38" s="16" t="s">
-        <v>58</v>
+      <c r="AA38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB38" s="16" t="n">
+        <v>64</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>64</v>
-      </c>
-      <c r="AD38" s="16" t="n">
         <v>578</v>
       </c>
+      <c r="AD38" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF38" s="16" t="s">
-        <v>58</v>
+      <c r="AF38" s="16" t="n">
+        <v>743</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>252</v>
+        <v>449</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>595</v>
+        <v>343</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>320</v>
+        <v>124</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>310</v>
+        <v>736</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>708</v>
+        <v>258</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>258</v>
+        <v>416</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>379</v>
+        <v>467</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>467</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,12 +7022,12 @@
       <c r="S39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U39" s="13" t="n">
+      <c r="T39" s="13" t="n">
         <v>2944</v>
       </c>
+      <c r="U39" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="V39" s="13" t="s">
         <v>58</v>
       </c>
@@ -7070,62 +7070,62 @@
       <c r="AI39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM39" s="13" t="n">
-        <v>0</v>
+      <c r="AJ39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO39" s="13" t="s">
-        <v>58</v>
+      <c r="AO39" s="13" t="n">
+        <v>1868</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>1868</v>
+        <v>2076</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>2076</v>
+        <v>3527</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>3527</v>
+        <v>3575</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>3575</v>
+        <v>1452</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>1452</v>
+        <v>879</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>0</v>
+        <v>4071</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>4071</v>
+        <v>910</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>910</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7208,44 +7208,44 @@
       <c r="AB40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC40" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD40" s="16" t="n">
+      <c r="AC40" s="16" t="n">
         <v>96</v>
       </c>
+      <c r="AD40" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF40" s="16" t="s">
-        <v>58</v>
+      <c r="AF40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG40" s="16" t="n">
-        <v>0</v>
+        <v>3050</v>
       </c>
       <c r="AH40" s="16" t="n">
-        <v>3050</v>
+        <v>2807</v>
       </c>
       <c r="AI40" s="16" t="n">
-        <v>2807</v>
+        <v>6252</v>
       </c>
       <c r="AJ40" s="16" t="n">
-        <v>6252</v>
+        <v>3980</v>
       </c>
       <c r="AK40" s="16" t="n">
-        <v>3980</v>
+        <v>7599</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>7599</v>
+        <v>285</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>285</v>
-      </c>
-      <c r="AN40" s="16" t="n">
         <v>26</v>
       </c>
-      <c r="AO40" s="16" t="s">
-        <v>58</v>
+      <c r="AN40" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP40" s="16" t="n">
         <v>0</v>
@@ -7263,25 +7263,25 @@
         <v>0</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>0</v>
+        <v>9959</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>9959</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>1040</v>
+        <v>3968</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>3968</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>0</v>
+        <v>4995</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>4995</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="16" t="n">
         <v>0</v>
@@ -7333,115 +7333,115 @@
         <v>0</v>
       </c>
       <c r="R41" s="18" t="n">
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="S41" s="18" t="n">
-        <v>41450</v>
+        <v>86517</v>
       </c>
       <c r="T41" s="18" t="n">
-        <v>86517</v>
+        <v>47454</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>47454</v>
+        <v>33003</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>33003</v>
+        <v>54308</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>54308</v>
+        <v>93591</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>93591</v>
+        <v>44258</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>44258</v>
+        <v>67004</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>67004</v>
+        <v>80247</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>80247</v>
+        <v>34585</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>34585</v>
+        <v>28343</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>28343</v>
+        <v>88085</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>88085</v>
+        <v>31202</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>31202</v>
+        <v>48886</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>48886</v>
+        <v>30870</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>30870</v>
+        <v>42125</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>42125</v>
+        <v>35005</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>35005</v>
+        <v>51687</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>51687</v>
+        <v>55846</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>55846</v>
+        <v>63902</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>63902</v>
+        <v>41660</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>41660</v>
+        <v>86639</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>86639</v>
+        <v>61917</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>61917</v>
+        <v>71113</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>71113</v>
+        <v>55724</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>55724</v>
+        <v>48871</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>48871</v>
+        <v>49462</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>49462</v>
+        <v>72693</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>72693</v>
+        <v>91965</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>91965</v>
+        <v>74455</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>74455</v>
+        <v>60369</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>60369</v>
+        <v>42306</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>42306</v>
+        <v>69645</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>69645</v>
+        <v>57733</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>57733</v>
+        <v>170842</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>170842</v>
+        <v>130545</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>130545</v>
+        <v>68185</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,15 +7713,15 @@
       <c r="S44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T44" s="16" t="s">
-        <v>58</v>
+      <c r="T44" s="16" t="n">
+        <v>89975</v>
       </c>
       <c r="U44" s="16" t="n">
-        <v>89975</v>
-      </c>
-      <c r="V44" s="16" t="n">
         <v>42025</v>
       </c>
+      <c r="V44" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="W44" s="16" t="s">
         <v>58</v>
       </c>
@@ -7731,42 +7731,42 @@
       <c r="Y44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="16" t="s">
-        <v>58</v>
+      <c r="Z44" s="16" t="n">
+        <v>59939</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>59939</v>
+        <v>25</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC44" s="16" t="n">
         <v>29796</v>
       </c>
-      <c r="AD44" s="16" t="s">
-        <v>58</v>
+      <c r="AC44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD44" s="16" t="n">
+        <v>59976</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>59976</v>
+        <v>29999</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>29999</v>
-      </c>
-      <c r="AG44" s="16" t="n">
         <v>30012</v>
       </c>
+      <c r="AG44" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AH44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI44" s="16" t="s">
-        <v>58</v>
+      <c r="AI44" s="16" t="n">
+        <v>38661</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>38661</v>
-      </c>
-      <c r="AK44" s="16" t="n">
         <v>21312</v>
       </c>
+      <c r="AK44" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AL44" s="16" t="s">
         <v>58</v>
       </c>
@@ -7776,14 +7776,14 @@
       <c r="AN44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="16" t="s">
-        <v>58</v>
+      <c r="AO44" s="16" t="n">
+        <v>59909</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>59909</v>
+        <v>30041</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>30041</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="16" t="n">
         <v>0</v>
@@ -7804,13 +7804,13 @@
         <v>0</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>0</v>
+        <v>29977</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>29977</v>
+        <v>29945</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>29945</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="16" t="n">
         <v>0</v>
@@ -7871,13 +7871,13 @@
         <v>0</v>
       </c>
       <c r="T45" s="18" t="n">
-        <v>0</v>
+        <v>89975</v>
       </c>
       <c r="U45" s="18" t="n">
-        <v>89975</v>
+        <v>42025</v>
       </c>
       <c r="V45" s="18" t="n">
-        <v>42025</v>
+        <v>0</v>
       </c>
       <c r="W45" s="18" t="n">
         <v>0</v>
@@ -7889,40 +7889,40 @@
         <v>0</v>
       </c>
       <c r="Z45" s="18" t="n">
-        <v>0</v>
+        <v>59939</v>
       </c>
       <c r="AA45" s="18" t="n">
-        <v>59939</v>
+        <v>25</v>
       </c>
       <c r="AB45" s="18" t="n">
-        <v>25</v>
+        <v>29796</v>
       </c>
       <c r="AC45" s="18" t="n">
-        <v>29796</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="18" t="n">
-        <v>0</v>
+        <v>59976</v>
       </c>
       <c r="AE45" s="18" t="n">
-        <v>59976</v>
+        <v>29999</v>
       </c>
       <c r="AF45" s="18" t="n">
-        <v>29999</v>
+        <v>30012</v>
       </c>
       <c r="AG45" s="18" t="n">
-        <v>30012</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AI45" s="18" t="n">
-        <v>0</v>
+        <v>38661</v>
       </c>
       <c r="AJ45" s="18" t="n">
-        <v>38661</v>
+        <v>21312</v>
       </c>
       <c r="AK45" s="18" t="n">
-        <v>21312</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="18" t="n">
         <v>0</v>
@@ -7934,13 +7934,13 @@
         <v>0</v>
       </c>
       <c r="AO45" s="18" t="n">
-        <v>0</v>
+        <v>59909</v>
       </c>
       <c r="AP45" s="18" t="n">
-        <v>59909</v>
+        <v>30041</v>
       </c>
       <c r="AQ45" s="18" t="n">
-        <v>30041</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="18" t="n">
         <v>0</v>
@@ -7961,13 +7961,13 @@
         <v>0</v>
       </c>
       <c r="AX45" s="18" t="n">
-        <v>0</v>
+        <v>29977</v>
       </c>
       <c r="AY45" s="18" t="n">
-        <v>29977</v>
+        <v>29945</v>
       </c>
       <c r="AZ45" s="18" t="n">
-        <v>29945</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="18" t="n">
         <v>0</v>
@@ -8078,8 +8078,8 @@
       <c r="Q47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R47" s="18" t="s">
-        <v>58</v>
+      <c r="R47" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="S47" s="18" t="n">
         <v>0</v>
@@ -8292,8 +8292,8 @@
       <c r="Q49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R49" s="18" t="s">
-        <v>58</v>
+      <c r="R49" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="S49" s="18" t="n">
         <v>0</v>
@@ -8450,115 +8450,115 @@
         <v>0</v>
       </c>
       <c r="R50" s="22" t="n">
-        <v>0</v>
+        <v>41450</v>
       </c>
       <c r="S50" s="22" t="n">
-        <v>41450</v>
+        <v>86517</v>
       </c>
       <c r="T50" s="22" t="n">
-        <v>86517</v>
+        <v>137429</v>
       </c>
       <c r="U50" s="22" t="n">
-        <v>137429</v>
+        <v>75028</v>
       </c>
       <c r="V50" s="22" t="n">
-        <v>75028</v>
+        <v>54308</v>
       </c>
       <c r="W50" s="22" t="n">
-        <v>54308</v>
+        <v>93591</v>
       </c>
       <c r="X50" s="22" t="n">
-        <v>93591</v>
+        <v>44258</v>
       </c>
       <c r="Y50" s="22" t="n">
-        <v>44258</v>
+        <v>67004</v>
       </c>
       <c r="Z50" s="22" t="n">
-        <v>67004</v>
+        <v>140186</v>
       </c>
       <c r="AA50" s="22" t="n">
-        <v>140186</v>
+        <v>34610</v>
       </c>
       <c r="AB50" s="22" t="n">
-        <v>34610</v>
+        <v>58139</v>
       </c>
       <c r="AC50" s="22" t="n">
-        <v>58139</v>
+        <v>88085</v>
       </c>
       <c r="AD50" s="22" t="n">
-        <v>88085</v>
+        <v>91178</v>
       </c>
       <c r="AE50" s="22" t="n">
-        <v>91178</v>
+        <v>78885</v>
       </c>
       <c r="AF50" s="22" t="n">
-        <v>78885</v>
+        <v>60882</v>
       </c>
       <c r="AG50" s="22" t="n">
-        <v>60882</v>
+        <v>42125</v>
       </c>
       <c r="AH50" s="22" t="n">
-        <v>42125</v>
+        <v>35005</v>
       </c>
       <c r="AI50" s="22" t="n">
-        <v>35005</v>
+        <v>90348</v>
       </c>
       <c r="AJ50" s="22" t="n">
-        <v>90348</v>
+        <v>77158</v>
       </c>
       <c r="AK50" s="22" t="n">
-        <v>77158</v>
+        <v>63902</v>
       </c>
       <c r="AL50" s="22" t="n">
-        <v>63902</v>
+        <v>41660</v>
       </c>
       <c r="AM50" s="22" t="n">
-        <v>41660</v>
+        <v>86639</v>
       </c>
       <c r="AN50" s="22" t="n">
-        <v>86639</v>
+        <v>61917</v>
       </c>
       <c r="AO50" s="22" t="n">
-        <v>61917</v>
+        <v>131022</v>
       </c>
       <c r="AP50" s="22" t="n">
-        <v>131022</v>
+        <v>85765</v>
       </c>
       <c r="AQ50" s="22" t="n">
-        <v>85765</v>
+        <v>48871</v>
       </c>
       <c r="AR50" s="22" t="n">
-        <v>48871</v>
+        <v>49462</v>
       </c>
       <c r="AS50" s="22" t="n">
-        <v>49462</v>
+        <v>72693</v>
       </c>
       <c r="AT50" s="22" t="n">
-        <v>72693</v>
+        <v>91965</v>
       </c>
       <c r="AU50" s="22" t="n">
-        <v>91965</v>
+        <v>74455</v>
       </c>
       <c r="AV50" s="22" t="n">
-        <v>74455</v>
+        <v>60369</v>
       </c>
       <c r="AW50" s="22" t="n">
-        <v>60369</v>
+        <v>42306</v>
       </c>
       <c r="AX50" s="22" t="n">
-        <v>42306</v>
+        <v>99622</v>
       </c>
       <c r="AY50" s="22" t="n">
-        <v>99622</v>
+        <v>87678</v>
       </c>
       <c r="AZ50" s="22" t="n">
-        <v>87678</v>
+        <v>170842</v>
       </c>
       <c r="BA50" s="22" t="n">
-        <v>170842</v>
+        <v>130545</v>
       </c>
       <c r="BB50" s="22" t="n">
-        <v>130545</v>
+        <v>68185</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9042,50 +9042,50 @@
       <c r="Q57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R57" s="13" t="s">
-        <v>58</v>
+      <c r="R57" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S57" s="13" t="n">
         <v>0</v>
       </c>
       <c r="T57" s="13" t="n">
-        <v>0</v>
+        <v>14392</v>
       </c>
       <c r="U57" s="13" t="n">
-        <v>14392</v>
+        <v>27037</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>27037</v>
+        <v>0</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>1112</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>0</v>
+        <v>17818</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>17818</v>
+        <v>88</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD57" s="13" t="n">
-        <v>0</v>
+      <c r="AD57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF57" s="13" t="s">
-        <v>58</v>
+      <c r="AF57" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG57" s="13" t="n">
         <v>0</v>
@@ -9094,43 +9094,43 @@
         <v>0</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>742</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>0</v>
+        <v>10976</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>10976</v>
+        <v>42210</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>42210</v>
+        <v>17208</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>17208</v>
+        <v>137054</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>137054</v>
+        <v>219665</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>219665</v>
+        <v>13155</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>13155</v>
+        <v>7486</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>7486</v>
+        <v>3</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>3</v>
+        <v>29320</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>29320</v>
+        <v>75650</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>75650</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="13" t="n">
         <v>0</v>
@@ -9145,13 +9145,13 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>0</v>
+        <v>944172</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>944172</v>
+        <v>382795</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>382795</v>
+        <v>441249</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9201,8 +9201,8 @@
       <c r="Q58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R58" s="16" t="s">
-        <v>58</v>
+      <c r="R58" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="S58" s="16" t="n">
         <v>0</v>
@@ -9360,116 +9360,116 @@
       <c r="Q59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R59" s="13" t="s">
-        <v>58</v>
+      <c r="R59" s="13" t="n">
+        <v>1303971</v>
       </c>
       <c r="S59" s="13" t="n">
-        <v>1303971</v>
+        <v>3165612</v>
       </c>
       <c r="T59" s="13" t="n">
-        <v>3165612</v>
+        <v>641039</v>
       </c>
       <c r="U59" s="13" t="n">
-        <v>641039</v>
+        <v>410484</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>410484</v>
+        <v>4168991</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>4168991</v>
+        <v>3967770</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>3967770</v>
+        <v>2859165</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>2859165</v>
+        <v>3660946</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>3660946</v>
+        <v>4639843</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>4639843</v>
+        <v>1345417</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>1345417</v>
+        <v>1490805</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>1490805</v>
+        <v>5474269</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>5474269</v>
+        <v>2450328</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>2450328</v>
+        <v>2508478</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>2508478</v>
+        <v>2519680</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>2519680</v>
+        <v>2840550</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>2840550</v>
+        <v>2157230</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>2157230</v>
+        <v>3177604</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>3177604</v>
+        <v>3379142</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>3379142</v>
+        <v>4146765</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>4146765</v>
+        <v>2050885</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>2050885</v>
+        <v>8639289</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>8639289</v>
+        <v>4299169</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>4299169</v>
+        <v>4435163</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>4435163</v>
+        <v>4667671</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>4667671</v>
+        <v>3166485</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>3166485</v>
+        <v>2074940</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>2074940</v>
+        <v>4485812</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>4485812</v>
+        <v>6648195</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>6648195</v>
+        <v>4732309</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>4732309</v>
+        <v>5254114</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>5254114</v>
+        <v>2902069</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>2902069</v>
+        <v>4708497</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>4708497</v>
+        <v>5113321</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>5113321</v>
+        <v>13999335</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>13999335</v>
+        <v>15548757</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>15548757</v>
+        <v>6147364</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9522,8 +9522,8 @@
       <c r="R60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S60" s="16" t="s">
-        <v>58</v>
+      <c r="S60" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="T60" s="16" t="n">
         <v>0</v>
@@ -9678,116 +9678,116 @@
       <c r="Q61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R61" s="13" t="s">
-        <v>58</v>
+      <c r="R61" s="13" t="n">
+        <v>654246</v>
       </c>
       <c r="S61" s="13" t="n">
-        <v>654246</v>
+        <v>1302124</v>
       </c>
       <c r="T61" s="13" t="n">
-        <v>1302124</v>
+        <v>688571</v>
       </c>
       <c r="U61" s="13" t="n">
-        <v>688571</v>
+        <v>1966809</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>1966809</v>
+        <v>618059</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>618059</v>
+        <v>3568433</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>3568433</v>
+        <v>1667546</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>1667546</v>
+        <v>3605296</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>3605296</v>
+        <v>2902364</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>2902364</v>
+        <v>2214369</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>2214369</v>
+        <v>1553225</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>1553225</v>
+        <v>3637914</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>3637914</v>
+        <v>1067346</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>1067346</v>
+        <v>3519609</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>3519609</v>
+        <v>1052298</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>1052298</v>
+        <v>2429680</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>2429680</v>
+        <v>2511782</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>2511782</v>
+        <v>3240571</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>3240571</v>
+        <v>3555247</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>3555247</v>
+        <v>3409874</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>3409874</v>
+        <v>3204470</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>3204470</v>
+        <v>2510284</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>2510284</v>
+        <v>3202108</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>3202108</v>
+        <v>3131634</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>3131634</v>
+        <v>2774540</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>2774540</v>
+        <v>3697408</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>3697408</v>
+        <v>5020076</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>5020076</v>
+        <v>5617313</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>5617313</v>
+        <v>4520013</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>4520013</v>
+        <v>3638292</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>3638292</v>
+        <v>2873512</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>2873512</v>
+        <v>2713536</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>2713536</v>
+        <v>4509332</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>4509332</v>
+        <v>3734989</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>3734989</v>
+        <v>5878328</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>5878328</v>
+        <v>6866442</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>6866442</v>
+        <v>3017151</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9858,95 +9858,95 @@
       <c r="X62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="16" t="s">
-        <v>58</v>
+      <c r="Y62" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Z62" s="16" t="n">
-        <v>0</v>
+        <v>8278</v>
       </c>
       <c r="AA62" s="16" t="n">
-        <v>8278</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="16" t="n">
-        <v>0</v>
+        <v>3126</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>3126</v>
-      </c>
-      <c r="AD62" s="16" t="n">
         <v>29419</v>
       </c>
+      <c r="AD62" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF62" s="16" t="s">
-        <v>58</v>
+      <c r="AF62" s="16" t="n">
+        <v>44358</v>
       </c>
       <c r="AG62" s="16" t="n">
-        <v>44358</v>
+        <v>1758</v>
       </c>
       <c r="AH62" s="16" t="n">
-        <v>1758</v>
+        <v>14260</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>14260</v>
+        <v>20217</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>20217</v>
+        <v>32597</v>
       </c>
       <c r="AK62" s="16" t="n">
-        <v>32597</v>
+        <v>37663</v>
       </c>
       <c r="AL62" s="16" t="n">
-        <v>37663</v>
+        <v>23501</v>
       </c>
       <c r="AM62" s="16" t="n">
-        <v>23501</v>
+        <v>10774</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>10774</v>
+        <v>11557</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>11557</v>
+        <v>10008</v>
       </c>
       <c r="AP62" s="16" t="n">
-        <v>10008</v>
+        <v>4605</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>4605</v>
+        <v>6664</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>6664</v>
+        <v>11395</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>11395</v>
+        <v>11182</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>11182</v>
+        <v>32470</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>32470</v>
+        <v>65370</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>65370</v>
+        <v>48487</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>48487</v>
+        <v>29279</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>29279</v>
+        <v>32551</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>32551</v>
+        <v>39209</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>39209</v>
+        <v>31368</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>31368</v>
+        <v>47848</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>47848</v>
+        <v>35764</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10002,11 +10002,11 @@
       <c r="S63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T63" s="13" t="s">
-        <v>58</v>
+      <c r="T63" s="13" t="n">
+        <v>47693</v>
       </c>
       <c r="U63" s="13" t="n">
-        <v>47693</v>
+        <v>0</v>
       </c>
       <c r="V63" s="13" t="n">
         <v>0</v>
@@ -10032,14 +10032,14 @@
       <c r="AC63" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD63" s="13" t="n">
-        <v>0</v>
+      <c r="AD63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF63" s="13" t="s">
-        <v>58</v>
+      <c r="AF63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG63" s="13" t="n">
         <v>0</v>
@@ -10066,46 +10066,46 @@
         <v>0</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>0</v>
+        <v>67295</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>67295</v>
+        <v>75318</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>75318</v>
+        <v>181305</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>181305</v>
+        <v>207207</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>207207</v>
+        <v>84139</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>84139</v>
+        <v>50959</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>50959</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>0</v>
+        <v>75457</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>75457</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>0</v>
+        <v>335014</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>335014</v>
+        <v>74915</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>74915</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10161,8 +10161,8 @@
       <c r="S64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T64" s="16" t="s">
-        <v>58</v>
+      <c r="T64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U64" s="16" t="n">
         <v>0</v>
@@ -10189,10 +10189,10 @@
         <v>0</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>0</v>
+        <v>4796</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>4796</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="16" t="n">
         <v>0</v>
@@ -10201,28 +10201,28 @@
         <v>0</v>
       </c>
       <c r="AG64" s="16" t="n">
-        <v>0</v>
+        <v>104008</v>
       </c>
       <c r="AH64" s="16" t="n">
-        <v>104008</v>
+        <v>95742</v>
       </c>
       <c r="AI64" s="16" t="n">
-        <v>95742</v>
+        <v>213161</v>
       </c>
       <c r="AJ64" s="16" t="n">
-        <v>213161</v>
+        <v>135734</v>
       </c>
       <c r="AK64" s="16" t="n">
-        <v>135734</v>
+        <v>259126</v>
       </c>
       <c r="AL64" s="16" t="n">
-        <v>259126</v>
+        <v>9715</v>
       </c>
       <c r="AM64" s="16" t="n">
-        <v>9715</v>
+        <v>887</v>
       </c>
       <c r="AN64" s="16" t="n">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="16" t="n">
         <v>0</v>
@@ -10243,25 +10243,25 @@
         <v>0</v>
       </c>
       <c r="AU64" s="16" t="n">
-        <v>0</v>
+        <v>445179</v>
       </c>
       <c r="AV64" s="16" t="n">
-        <v>445179</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>0</v>
+        <v>47077</v>
       </c>
       <c r="AX64" s="16" t="n">
-        <v>47077</v>
+        <v>179730</v>
       </c>
       <c r="AY64" s="16" t="n">
-        <v>179730</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="16" t="n">
-        <v>0</v>
+        <v>320158</v>
       </c>
       <c r="BA64" s="16" t="n">
-        <v>320158</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="16" t="n">
         <v>0</v>
@@ -10313,115 +10313,115 @@
         <v>0</v>
       </c>
       <c r="R65" s="18" t="n">
-        <v>0</v>
+        <v>1958217</v>
       </c>
       <c r="S65" s="18" t="n">
-        <v>1958217</v>
+        <v>4467736</v>
       </c>
       <c r="T65" s="18" t="n">
-        <v>4467736</v>
+        <v>1391695</v>
       </c>
       <c r="U65" s="18" t="n">
-        <v>1391695</v>
+        <v>2404330</v>
       </c>
       <c r="V65" s="18" t="n">
-        <v>2404330</v>
+        <v>4787050</v>
       </c>
       <c r="W65" s="18" t="n">
-        <v>4787050</v>
+        <v>7537315</v>
       </c>
       <c r="X65" s="18" t="n">
-        <v>7537315</v>
+        <v>4526711</v>
       </c>
       <c r="Y65" s="18" t="n">
-        <v>4526711</v>
+        <v>7266242</v>
       </c>
       <c r="Z65" s="18" t="n">
-        <v>7266242</v>
+        <v>7568303</v>
       </c>
       <c r="AA65" s="18" t="n">
-        <v>7568303</v>
+        <v>3559874</v>
       </c>
       <c r="AB65" s="18" t="n">
-        <v>3559874</v>
+        <v>3047156</v>
       </c>
       <c r="AC65" s="18" t="n">
-        <v>3047156</v>
+        <v>9146398</v>
       </c>
       <c r="AD65" s="18" t="n">
-        <v>9146398</v>
+        <v>3517674</v>
       </c>
       <c r="AE65" s="18" t="n">
-        <v>3517674</v>
+        <v>6028087</v>
       </c>
       <c r="AF65" s="18" t="n">
-        <v>6028087</v>
+        <v>3616336</v>
       </c>
       <c r="AG65" s="18" t="n">
-        <v>3616336</v>
+        <v>5375996</v>
       </c>
       <c r="AH65" s="18" t="n">
-        <v>5375996</v>
+        <v>4779014</v>
       </c>
       <c r="AI65" s="18" t="n">
-        <v>4779014</v>
+        <v>6652295</v>
       </c>
       <c r="AJ65" s="18" t="n">
-        <v>6652295</v>
+        <v>7102720</v>
       </c>
       <c r="AK65" s="18" t="n">
-        <v>7102720</v>
+        <v>7864404</v>
       </c>
       <c r="AL65" s="18" t="n">
-        <v>7864404</v>
+        <v>5330781</v>
       </c>
       <c r="AM65" s="18" t="n">
-        <v>5330781</v>
+        <v>11178442</v>
       </c>
       <c r="AN65" s="18" t="n">
-        <v>11178442</v>
+        <v>7649888</v>
       </c>
       <c r="AO65" s="18" t="n">
-        <v>7649888</v>
+        <v>7863765</v>
       </c>
       <c r="AP65" s="18" t="n">
-        <v>7863765</v>
+        <v>7535289</v>
       </c>
       <c r="AQ65" s="18" t="n">
-        <v>7535289</v>
+        <v>7059348</v>
       </c>
       <c r="AR65" s="18" t="n">
-        <v>7059348</v>
+        <v>7313621</v>
       </c>
       <c r="AS65" s="18" t="n">
-        <v>7313621</v>
+        <v>10227766</v>
       </c>
       <c r="AT65" s="18" t="n">
-        <v>10227766</v>
+        <v>11327287</v>
       </c>
       <c r="AU65" s="18" t="n">
-        <v>11327287</v>
+        <v>8881150</v>
       </c>
       <c r="AV65" s="18" t="n">
-        <v>8881150</v>
+        <v>8176113</v>
       </c>
       <c r="AW65" s="18" t="n">
-        <v>8176113</v>
+        <v>5767418</v>
       </c>
       <c r="AX65" s="18" t="n">
-        <v>5767418</v>
+        <v>9430110</v>
       </c>
       <c r="AY65" s="18" t="n">
-        <v>9430110</v>
+        <v>8887519</v>
       </c>
       <c r="AZ65" s="18" t="n">
-        <v>8887519</v>
+        <v>21508375</v>
       </c>
       <c r="BA65" s="18" t="n">
-        <v>21508375</v>
+        <v>22920757</v>
       </c>
       <c r="BB65" s="18" t="n">
-        <v>22920757</v>
+        <v>9643055</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10537,8 +10537,8 @@
       <c r="T67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="13" t="s">
-        <v>58</v>
+      <c r="U67" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="13" t="n">
         <v>0</v>
@@ -10564,8 +10564,8 @@
       <c r="AC67" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD67" s="13" t="n">
-        <v>0</v>
+      <c r="AD67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE67" s="13" t="s">
         <v>58</v>
@@ -10693,14 +10693,14 @@
       <c r="S68" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T68" s="16" t="s">
-        <v>58</v>
+      <c r="T68" s="16" t="n">
+        <v>11253090</v>
       </c>
       <c r="U68" s="16" t="n">
-        <v>11253090</v>
+        <v>3834785</v>
       </c>
       <c r="V68" s="16" t="n">
-        <v>3834785</v>
+        <v>0</v>
       </c>
       <c r="W68" s="16" t="n">
         <v>0</v>
@@ -10712,40 +10712,40 @@
         <v>0</v>
       </c>
       <c r="Z68" s="16" t="n">
-        <v>0</v>
+        <v>6228129</v>
       </c>
       <c r="AA68" s="16" t="n">
-        <v>6228129</v>
+        <v>2637</v>
       </c>
       <c r="AB68" s="16" t="n">
-        <v>2637</v>
+        <v>3554546</v>
       </c>
       <c r="AC68" s="16" t="n">
-        <v>3554546</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="16" t="n">
-        <v>0</v>
+        <v>7511665</v>
       </c>
       <c r="AE68" s="16" t="n">
-        <v>7511665</v>
+        <v>3741425</v>
       </c>
       <c r="AF68" s="16" t="n">
-        <v>3741425</v>
+        <v>3732099</v>
       </c>
       <c r="AG68" s="16" t="n">
-        <v>3732099</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AI68" s="16" t="n">
-        <v>0</v>
+        <v>5530953</v>
       </c>
       <c r="AJ68" s="16" t="n">
-        <v>5530953</v>
+        <v>3080464</v>
       </c>
       <c r="AK68" s="16" t="n">
-        <v>3080464</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="16" t="n">
         <v>0</v>
@@ -10757,13 +10757,13 @@
         <v>0</v>
       </c>
       <c r="AO68" s="16" t="n">
-        <v>0</v>
+        <v>7950809</v>
       </c>
       <c r="AP68" s="16" t="n">
-        <v>7950809</v>
+        <v>4159803</v>
       </c>
       <c r="AQ68" s="16" t="n">
-        <v>4159803</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="16" t="n">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="AX68" s="16" t="n">
-        <v>0</v>
+        <v>4247964</v>
       </c>
       <c r="AY68" s="16" t="n">
-        <v>4247964</v>
+        <v>4261085</v>
       </c>
       <c r="AZ68" s="16" t="n">
-        <v>4261085</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="16" t="n">
         <v>0</v>
@@ -10851,13 +10851,13 @@
         <v>0</v>
       </c>
       <c r="T69" s="18" t="n">
-        <v>0</v>
+        <v>11253090</v>
       </c>
       <c r="U69" s="18" t="n">
-        <v>11253090</v>
+        <v>3834785</v>
       </c>
       <c r="V69" s="18" t="n">
-        <v>3834785</v>
+        <v>0</v>
       </c>
       <c r="W69" s="18" t="n">
         <v>0</v>
@@ -10869,40 +10869,40 @@
         <v>0</v>
       </c>
       <c r="Z69" s="18" t="n">
-        <v>0</v>
+        <v>6228129</v>
       </c>
       <c r="AA69" s="18" t="n">
-        <v>6228129</v>
+        <v>2637</v>
       </c>
       <c r="AB69" s="18" t="n">
-        <v>2637</v>
+        <v>3554546</v>
       </c>
       <c r="AC69" s="18" t="n">
-        <v>3554546</v>
+        <v>0</v>
       </c>
       <c r="AD69" s="18" t="n">
-        <v>0</v>
+        <v>7511665</v>
       </c>
       <c r="AE69" s="18" t="n">
-        <v>7511665</v>
+        <v>3741425</v>
       </c>
       <c r="AF69" s="18" t="n">
-        <v>3741425</v>
+        <v>3732099</v>
       </c>
       <c r="AG69" s="18" t="n">
-        <v>3732099</v>
+        <v>0</v>
       </c>
       <c r="AH69" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AI69" s="18" t="n">
-        <v>0</v>
+        <v>5530953</v>
       </c>
       <c r="AJ69" s="18" t="n">
-        <v>5530953</v>
+        <v>3080464</v>
       </c>
       <c r="AK69" s="18" t="n">
-        <v>3080464</v>
+        <v>0</v>
       </c>
       <c r="AL69" s="18" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="AO69" s="18" t="n">
-        <v>0</v>
+        <v>7950809</v>
       </c>
       <c r="AP69" s="18" t="n">
-        <v>7950809</v>
+        <v>4159803</v>
       </c>
       <c r="AQ69" s="18" t="n">
-        <v>4159803</v>
+        <v>0</v>
       </c>
       <c r="AR69" s="18" t="n">
         <v>0</v>
@@ -10941,13 +10941,13 @@
         <v>0</v>
       </c>
       <c r="AX69" s="18" t="n">
-        <v>0</v>
+        <v>4247964</v>
       </c>
       <c r="AY69" s="18" t="n">
-        <v>4247964</v>
+        <v>4261085</v>
       </c>
       <c r="AZ69" s="18" t="n">
-        <v>4261085</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="18" t="n">
         <v>0</v>
@@ -11060,8 +11060,8 @@
       <c r="Q71" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R71" s="18" t="s">
-        <v>58</v>
+      <c r="R71" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S71" s="23" t="n">
         <v>0</v>
@@ -11276,8 +11276,8 @@
       <c r="Q73" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="R73" s="18" t="s">
-        <v>58</v>
+      <c r="R73" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="S73" s="23" t="n">
         <v>0</v>
@@ -11492,8 +11492,8 @@
       <c r="Q75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R75" s="13" t="s">
-        <v>58</v>
+      <c r="R75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="S75" s="13" t="n">
         <v>0</v>
@@ -11650,115 +11650,115 @@
         <v>0</v>
       </c>
       <c r="R76" s="22" t="n">
-        <v>0</v>
+        <v>1958217</v>
       </c>
       <c r="S76" s="22" t="n">
-        <v>1958217</v>
+        <v>4467736</v>
       </c>
       <c r="T76" s="22" t="n">
-        <v>4467736</v>
+        <v>12644785</v>
       </c>
       <c r="U76" s="22" t="n">
-        <v>12644785</v>
+        <v>6239115</v>
       </c>
       <c r="V76" s="22" t="n">
-        <v>6239115</v>
+        <v>4787050</v>
       </c>
       <c r="W76" s="22" t="n">
-        <v>4787050</v>
+        <v>7537315</v>
       </c>
       <c r="X76" s="22" t="n">
-        <v>7537315</v>
+        <v>4526711</v>
       </c>
       <c r="Y76" s="22" t="n">
-        <v>4526711</v>
+        <v>7266242</v>
       </c>
       <c r="Z76" s="22" t="n">
-        <v>7266242</v>
+        <v>13796432</v>
       </c>
       <c r="AA76" s="22" t="n">
-        <v>13796432</v>
+        <v>3562511</v>
       </c>
       <c r="AB76" s="22" t="n">
-        <v>3562511</v>
+        <v>6601702</v>
       </c>
       <c r="AC76" s="22" t="n">
-        <v>6601702</v>
+        <v>9146398</v>
       </c>
       <c r="AD76" s="22" t="n">
-        <v>9146398</v>
+        <v>11029339</v>
       </c>
       <c r="AE76" s="22" t="n">
-        <v>11029339</v>
+        <v>9769512</v>
       </c>
       <c r="AF76" s="22" t="n">
-        <v>9769512</v>
+        <v>7348435</v>
       </c>
       <c r="AG76" s="22" t="n">
-        <v>7348435</v>
+        <v>5375996</v>
       </c>
       <c r="AH76" s="22" t="n">
-        <v>5375996</v>
+        <v>4779014</v>
       </c>
       <c r="AI76" s="22" t="n">
-        <v>4779014</v>
+        <v>12183248</v>
       </c>
       <c r="AJ76" s="22" t="n">
-        <v>12183248</v>
+        <v>10183184</v>
       </c>
       <c r="AK76" s="22" t="n">
-        <v>10183184</v>
+        <v>7864404</v>
       </c>
       <c r="AL76" s="22" t="n">
-        <v>7864404</v>
+        <v>5330781</v>
       </c>
       <c r="AM76" s="22" t="n">
-        <v>5330781</v>
+        <v>11178442</v>
       </c>
       <c r="AN76" s="22" t="n">
-        <v>11178442</v>
+        <v>7649888</v>
       </c>
       <c r="AO76" s="22" t="n">
-        <v>7649888</v>
+        <v>15814574</v>
       </c>
       <c r="AP76" s="22" t="n">
-        <v>15814574</v>
+        <v>11695092</v>
       </c>
       <c r="AQ76" s="22" t="n">
-        <v>11695092</v>
+        <v>7059348</v>
       </c>
       <c r="AR76" s="22" t="n">
-        <v>7059348</v>
+        <v>7313621</v>
       </c>
       <c r="AS76" s="22" t="n">
-        <v>7313621</v>
+        <v>10227766</v>
       </c>
       <c r="AT76" s="22" t="n">
-        <v>10227766</v>
+        <v>11327287</v>
       </c>
       <c r="AU76" s="22" t="n">
-        <v>11327287</v>
+        <v>8881150</v>
       </c>
       <c r="AV76" s="22" t="n">
-        <v>8881150</v>
+        <v>8176113</v>
       </c>
       <c r="AW76" s="22" t="n">
-        <v>8176113</v>
+        <v>5767418</v>
       </c>
       <c r="AX76" s="22" t="n">
-        <v>5767418</v>
+        <v>13678074</v>
       </c>
       <c r="AY76" s="22" t="n">
-        <v>13678074</v>
+        <v>13148604</v>
       </c>
       <c r="AZ76" s="22" t="n">
-        <v>13148604</v>
+        <v>21508375</v>
       </c>
       <c r="BA76" s="22" t="n">
-        <v>21508375</v>
+        <v>22920757</v>
       </c>
       <c r="BB76" s="22" t="n">
-        <v>22920757</v>
+        <v>9643055</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12248,33 +12248,33 @@
       <c r="S83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T83" s="13" t="s">
-        <v>58</v>
+      <c r="T83" s="13" t="n">
+        <v>860045</v>
       </c>
       <c r="U83" s="13" t="n">
-        <v>860045</v>
-      </c>
-      <c r="V83" s="13" t="n">
         <v>19778347</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="13" t="n">
+      <c r="V83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W83" s="13" t="n">
         <v>30054054</v>
       </c>
+      <c r="X83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z83" s="13" t="s">
-        <v>58</v>
+      <c r="Z83" s="13" t="n">
+        <v>3348619</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>3348619</v>
-      </c>
-      <c r="AB83" s="13" t="n">
         <v>1955556</v>
       </c>
+      <c r="AB83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC83" s="13" t="s">
         <v>58</v>
       </c>
@@ -12293,45 +12293,45 @@
       <c r="AH83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ83" s="13" t="n">
+      <c r="AI83" s="13" t="n">
         <v>500000</v>
       </c>
-      <c r="AK83" s="13" t="s">
-        <v>58</v>
+      <c r="AJ83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK83" s="13" t="n">
+        <v>11211440</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>11211440</v>
+        <v>12798666</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>12798666</v>
+        <v>10069046</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>10069046</v>
+        <v>29569364</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>29569364</v>
+        <v>15854565</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>15854565</v>
+        <v>7747350</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>7747350</v>
+        <v>31991453</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>31991453</v>
+        <v>300000</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>300000</v>
+        <v>7039616</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>7039616</v>
-      </c>
-      <c r="AU83" s="13" t="n">
         <v>7039829</v>
       </c>
+      <c r="AU83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV83" s="13" t="s">
         <v>58</v>
       </c>
@@ -12344,14 +12344,14 @@
       <c r="AY83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ83" s="13" t="s">
-        <v>58</v>
+      <c r="AZ83" s="13" t="n">
+        <v>20550049</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>20550049</v>
+        <v>20762326</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>20762326</v>
+        <v>21298885</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12401,116 +12401,116 @@
       <c r="Q84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="R84" s="16" t="s">
-        <v>58</v>
+      <c r="R84" s="16" t="n">
+        <v>45753368</v>
       </c>
       <c r="S84" s="16" t="n">
-        <v>45753368</v>
+        <v>51058258</v>
       </c>
       <c r="T84" s="16" t="n">
-        <v>51058258</v>
+        <v>51344734</v>
       </c>
       <c r="U84" s="16" t="n">
-        <v>51344734</v>
+        <v>67259381</v>
       </c>
       <c r="V84" s="16" t="n">
-        <v>67259381</v>
+        <v>88970741</v>
       </c>
       <c r="W84" s="16" t="n">
-        <v>88970741</v>
+        <v>79304645</v>
       </c>
       <c r="X84" s="16" t="n">
-        <v>79304645</v>
+        <v>101550879</v>
       </c>
       <c r="Y84" s="16" t="n">
-        <v>101550879</v>
+        <v>106185167</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>106185167</v>
+        <v>99736528</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>99736528</v>
+        <v>96611877</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>96611877</v>
+        <v>103449101</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>103449101</v>
+        <v>99274051</v>
       </c>
       <c r="AD84" s="16" t="n">
-        <v>99274051</v>
+        <v>111378545</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>111378545</v>
+        <v>119451333</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>119451333</v>
+        <v>118333725</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>118333725</v>
+        <v>131720380</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>131720380</v>
+        <v>146035066</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>146035066</v>
+        <v>138929871</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>138929871</v>
+        <v>130731275</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>130731275</v>
+        <v>133917810</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>133917810</v>
+        <v>129959128</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>129959128</v>
+        <v>129410102</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>129410102</v>
+        <v>124606371</v>
       </c>
       <c r="AO84" s="16" t="n">
-        <v>124606371</v>
+        <v>131482361</v>
       </c>
       <c r="AP84" s="16" t="n">
-        <v>131482361</v>
+        <v>139834362</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>139834362</v>
+        <v>149249859</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>149249859</v>
+        <v>144063042</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>144063042</v>
+        <v>140585809</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>140585809</v>
+        <v>133329222</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>133329222</v>
+        <v>121481427</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>121481427</v>
+        <v>129991192</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>129991192</v>
+        <v>133772887</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>133772887</v>
+        <v>134259966</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>134259966</v>
+        <v>151816187</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>151816187</v>
+        <v>168334075</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>168334075</v>
+        <v>205557190</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>205557190</v>
+        <v>190917855</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12560,116 +12560,116 @@
       <c r="Q85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="R85" s="13" t="s">
-        <v>58</v>
+      <c r="R85" s="13" t="n">
+        <v>50520927</v>
       </c>
       <c r="S85" s="13" t="n">
-        <v>50520927</v>
+        <v>53111066</v>
       </c>
       <c r="T85" s="13" t="n">
-        <v>53111066</v>
+        <v>45031129</v>
       </c>
       <c r="U85" s="13" t="n">
-        <v>45031129</v>
+        <v>77030079</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>77030079</v>
+        <v>82960940</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>82960940</v>
+        <v>81991476</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>81991476</v>
+        <v>103554990</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>103554990</v>
+        <v>110840102</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>110840102</v>
+        <v>102833192</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>102833192</v>
+        <v>107420636</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>107420636</v>
+        <v>112000649</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>112000649</v>
+        <v>112740610</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>112740610</v>
+        <v>115990654</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>115990654</v>
+        <v>126214194</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>126214194</v>
+        <v>119119085</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>119119085</v>
+        <v>139029526</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>139029526</v>
+        <v>145932024</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>145932024</v>
+        <v>155594709</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>155594709</v>
+        <v>139045211</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>139045211</v>
+        <v>143489059</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>143489059</v>
+        <v>145969571</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>145969571</v>
+        <v>139274523</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>139274523</v>
+        <v>142874710</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>142874710</v>
+        <v>146763239</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>146763239</v>
+        <v>150414182</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>150414182</v>
+        <v>155268467</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>155268467</v>
+        <v>160355076</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>160355076</v>
+        <v>160083015</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>160083015</v>
+        <v>149833029</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>149833029</v>
+        <v>146675751</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>146675751</v>
+        <v>149335412</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>149335412</v>
+        <v>150651566</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>150651566</v>
+        <v>149360140</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>149360140</v>
+        <v>158068010</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>158068010</v>
+        <v>182059217</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>182059217</v>
+        <v>195686454</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>195686454</v>
+        <v>207236143</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12743,92 +12743,92 @@
       <c r="Y86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA86" s="16" t="n">
+      <c r="Z86" s="16" t="n">
         <v>45734807</v>
       </c>
-      <c r="AB86" s="16" t="s">
-        <v>58</v>
+      <c r="AA86" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB86" s="16" t="n">
+        <v>48843750</v>
       </c>
       <c r="AC86" s="16" t="n">
-        <v>48843750</v>
-      </c>
-      <c r="AD86" s="16" t="n">
         <v>50897924</v>
       </c>
+      <c r="AD86" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF86" s="16" t="s">
-        <v>58</v>
+      <c r="AF86" s="16" t="n">
+        <v>59701211</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>59701211</v>
+        <v>51705882</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>51705882</v>
+        <v>66635514</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>66635514</v>
+        <v>80226190</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>80226190</v>
+        <v>72599109</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>72599109</v>
+        <v>63299160</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>63299160</v>
+        <v>68516035</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>68516035</v>
+        <v>89041322</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>89041322</v>
+        <v>31404891</v>
       </c>
       <c r="AO86" s="16" t="n">
-        <v>31404891</v>
+        <v>31275000</v>
       </c>
       <c r="AP86" s="16" t="n">
-        <v>31275000</v>
+        <v>37137097</v>
       </c>
       <c r="AQ86" s="16" t="n">
-        <v>37137097</v>
+        <v>82271605</v>
       </c>
       <c r="AR86" s="16" t="n">
-        <v>82271605</v>
+        <v>67827381</v>
       </c>
       <c r="AS86" s="16" t="n">
-        <v>67827381</v>
+        <v>143358974</v>
       </c>
       <c r="AT86" s="16" t="n">
-        <v>143358974</v>
+        <v>104741935</v>
       </c>
       <c r="AU86" s="16" t="n">
-        <v>104741935</v>
+        <v>88817935</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>88817935</v>
+        <v>68484463</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>68484463</v>
+        <v>113484496</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>113484496</v>
+        <v>78247596</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>78247596</v>
+        <v>92692671</v>
       </c>
       <c r="AZ86" s="16" t="n">
-        <v>92692671</v>
+        <v>82765172</v>
       </c>
       <c r="BA86" s="16" t="n">
-        <v>82765172</v>
+        <v>102458244</v>
       </c>
       <c r="BB86" s="16" t="n">
-        <v>102458244</v>
+        <v>51756874</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,12 +12884,12 @@
       <c r="S87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U87" s="13" t="n">
+      <c r="T87" s="13" t="n">
         <v>16200068</v>
       </c>
+      <c r="U87" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
@@ -12947,47 +12947,47 @@
       <c r="AN87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO87" s="13" t="s">
-        <v>58</v>
+      <c r="AO87" s="13" t="n">
+        <v>36025161</v>
       </c>
       <c r="AP87" s="13" t="n">
-        <v>36025161</v>
+        <v>36280347</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>36280347</v>
+        <v>51404877</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>51404877</v>
+        <v>57960000</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>57960000</v>
+        <v>57946970</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>57946970</v>
-      </c>
-      <c r="AU87" s="13" t="n">
         <v>57973834</v>
       </c>
+      <c r="AU87" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX87" s="13" t="n">
+      <c r="AW87" s="13" t="n">
         <v>57954685</v>
       </c>
+      <c r="AX87" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ87" s="13" t="s">
-        <v>58</v>
+      <c r="AZ87" s="13" t="n">
+        <v>82292803</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>82292803</v>
+        <v>82324176</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>82324176</v>
+        <v>80368421</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13070,42 +13070,42 @@
       <c r="AB88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC88" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD88" s="16" t="n">
+      <c r="AC88" s="16" t="n">
         <v>49958333</v>
       </c>
+      <c r="AD88" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE88" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AF88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG88" s="16" t="s">
-        <v>58</v>
+      <c r="AG88" s="16" t="n">
+        <v>34100984</v>
       </c>
       <c r="AH88" s="16" t="n">
-        <v>34100984</v>
+        <v>34108301</v>
       </c>
       <c r="AI88" s="16" t="n">
-        <v>34108301</v>
+        <v>34094850</v>
       </c>
       <c r="AJ88" s="16" t="n">
-        <v>34094850</v>
+        <v>34104020</v>
       </c>
       <c r="AK88" s="16" t="n">
-        <v>34104020</v>
+        <v>34100013</v>
       </c>
       <c r="AL88" s="16" t="n">
-        <v>34100013</v>
+        <v>34087719</v>
       </c>
       <c r="AM88" s="16" t="n">
-        <v>34087719</v>
-      </c>
-      <c r="AN88" s="16" t="n">
         <v>34115385</v>
       </c>
+      <c r="AN88" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AO88" s="16" t="s">
         <v>58</v>
       </c>
@@ -13124,26 +13124,26 @@
       <c r="AT88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU88" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV88" s="16" t="n">
+      <c r="AU88" s="16" t="n">
         <v>44701175</v>
       </c>
-      <c r="AW88" s="16" t="s">
-        <v>58</v>
+      <c r="AV88" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW88" s="16" t="n">
+        <v>45266346</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>45266346</v>
-      </c>
-      <c r="AY88" s="16" t="n">
         <v>45294859</v>
       </c>
-      <c r="AZ88" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA88" s="16" t="n">
+      <c r="AY88" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ88" s="16" t="n">
         <v>64095696</v>
+      </c>
+      <c r="BA88" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB88" s="16" t="s">
         <v>58</v>
@@ -13259,15 +13259,15 @@
       <c r="S90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T90" s="13" t="s">
-        <v>58</v>
+      <c r="T90" s="13" t="n">
+        <v>125069075</v>
       </c>
       <c r="U90" s="13" t="n">
-        <v>125069075</v>
-      </c>
-      <c r="V90" s="13" t="n">
         <v>91250089</v>
       </c>
+      <c r="V90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="W90" s="13" t="s">
         <v>58</v>
       </c>
@@ -13277,42 +13277,42 @@
       <c r="Y90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z90" s="13" t="s">
-        <v>58</v>
+      <c r="Z90" s="13" t="n">
+        <v>103907790</v>
       </c>
       <c r="AA90" s="13" t="n">
-        <v>103907790</v>
+        <v>105480000</v>
       </c>
       <c r="AB90" s="13" t="n">
-        <v>105480000</v>
-      </c>
-      <c r="AC90" s="13" t="n">
         <v>119296080</v>
       </c>
-      <c r="AD90" s="13" t="s">
-        <v>58</v>
+      <c r="AC90" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD90" s="13" t="n">
+        <v>125244514</v>
       </c>
       <c r="AE90" s="13" t="n">
-        <v>125244514</v>
+        <v>124718324</v>
       </c>
       <c r="AF90" s="13" t="n">
-        <v>124718324</v>
-      </c>
-      <c r="AG90" s="13" t="n">
         <v>124353559</v>
       </c>
+      <c r="AG90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI90" s="13" t="s">
-        <v>58</v>
+      <c r="AI90" s="13" t="n">
+        <v>143062854</v>
       </c>
       <c r="AJ90" s="13" t="n">
-        <v>143062854</v>
-      </c>
-      <c r="AK90" s="13" t="n">
         <v>144541291</v>
       </c>
+      <c r="AK90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL90" s="13" t="s">
         <v>58</v>
       </c>
@@ -13322,15 +13322,15 @@
       <c r="AN90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO90" s="13" t="s">
-        <v>58</v>
+      <c r="AO90" s="13" t="n">
+        <v>132714767</v>
       </c>
       <c r="AP90" s="13" t="n">
-        <v>132714767</v>
-      </c>
-      <c r="AQ90" s="13" t="n">
         <v>138470857</v>
       </c>
+      <c r="AQ90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR90" s="13" t="s">
         <v>58</v>
       </c>
@@ -13349,14 +13349,14 @@
       <c r="AW90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX90" s="13" t="s">
-        <v>58</v>
+      <c r="AX90" s="13" t="n">
+        <v>141707442</v>
       </c>
       <c r="AY90" s="13" t="n">
-        <v>141707442</v>
-      </c>
-      <c r="AZ90" s="13" t="n">
         <v>142297045</v>
+      </c>
+      <c r="AZ90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA90" s="13" t="s">
         <v>58</v>
